--- a/Testing_Result/Result.xlsx
+++ b/Testing_Result/Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Documents/GitHub/SDP/Testing_Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3783AD55-162F-5A43-A728-C25CD90D91E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1FE52-68E1-6C48-8515-6383071E5B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="14540" windowHeight="15800" xr2:uid="{901090D2-3000-7642-B970-AD517F5AFA05}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="28620" windowHeight="15800" xr2:uid="{901090D2-3000-7642-B970-AD517F5AFA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="recall" sheetId="2" r:id="rId3"/>
     <sheet name="F-mesure" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="33">
   <si>
     <t>ant-1.6</t>
   </si>
@@ -131,12 +131,18 @@
   <si>
     <t>AVG</t>
   </si>
+  <si>
+    <t>SVM linear</t>
+  </si>
+  <si>
+    <t>SVM RBF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,13 +162,6 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,20 +190,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -248,34 +242,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFA2B8E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,158 +740,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E06810-3D41-FB4E-89FA-F81CF008A409}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="15"/>
+    <col min="7" max="7" width="10.83203125" style="15"/>
+    <col min="10" max="10" width="10.83203125" style="15"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>0.78</v>
+      </c>
       <c r="C3">
         <v>0.76</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="15">
         <v>0.8</v>
       </c>
-      <c r="G3">
+      <c r="E3">
+        <v>0.79</v>
+      </c>
+      <c r="F3">
         <v>0.78</v>
       </c>
-      <c r="J3">
+      <c r="G3" s="15">
+        <v>0.78</v>
+      </c>
+      <c r="M3">
         <v>0.69</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="C4">
         <v>0.74</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="J4">
+      <c r="D4" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.74</v>
+      </c>
+      <c r="F4">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G4" s="15">
+        <v>0.74</v>
+      </c>
+      <c r="M4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>0.68</v>
+      </c>
       <c r="C5">
         <v>0.81</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="15">
         <v>0.84</v>
       </c>
-      <c r="G5">
+      <c r="E5">
+        <v>0.83</v>
+      </c>
+      <c r="F5">
+        <v>0.83</v>
+      </c>
+      <c r="G5" s="15">
         <v>0.84</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>0.66</v>
+      </c>
       <c r="C6">
         <v>0.71</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>0.79</v>
       </c>
-      <c r="G6">
+      <c r="E6">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0.76</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7">
+        <v>0.48</v>
+      </c>
       <c r="C7">
         <v>0.84</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="15">
         <v>0.84</v>
       </c>
-      <c r="G7">
+      <c r="E7">
+        <v>0.84</v>
+      </c>
+      <c r="F7">
+        <v>0.84</v>
+      </c>
+      <c r="G7" s="15">
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="C8">
         <v>0.7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="15">
         <v>0.89</v>
       </c>
-      <c r="G8">
+      <c r="E8">
+        <v>0.89</v>
+      </c>
+      <c r="F8">
+        <v>0.89</v>
+      </c>
+      <c r="G8" s="15">
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -751,17 +968,23 @@
       <c r="C9">
         <v>0.98</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="15">
         <v>0.98</v>
       </c>
-      <c r="G9">
+      <c r="E9">
         <v>0.98</v>
       </c>
-      <c r="J9">
+      <c r="F9">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G9" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="M9">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -771,17 +994,23 @@
       <c r="C10">
         <v>0.88</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="15">
         <v>0.91</v>
       </c>
-      <c r="G10">
+      <c r="E10">
+        <v>0.88</v>
+      </c>
+      <c r="F10">
+        <v>0.88</v>
+      </c>
+      <c r="G10" s="15">
         <v>0.87</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>0.88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -791,14 +1020,20 @@
       <c r="C11">
         <v>0.89</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="15">
         <v>0.9</v>
       </c>
-      <c r="G11">
+      <c r="E11">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0.87</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -808,14 +1043,20 @@
       <c r="C12">
         <v>0.67</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="15">
         <v>0.75</v>
       </c>
-      <c r="G12">
+      <c r="E12">
+        <v>0.68</v>
+      </c>
+      <c r="F12">
+        <v>0.69</v>
+      </c>
+      <c r="G12" s="15">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -825,31 +1066,49 @@
       <c r="C13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="15">
         <v>0.54</v>
       </c>
-      <c r="G13">
+      <c r="E13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F13">
+        <v>0.52</v>
+      </c>
+      <c r="G13" s="15">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="11">
         <v>0.66</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>0.84</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="23">
         <v>0.86</v>
       </c>
-      <c r="G14">
+      <c r="E14" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="G14" s="23">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -859,7 +1118,7 @@
       <c r="C15">
         <v>0.77</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="15">
         <v>0.87</v>
       </c>
       <c r="E15">
@@ -868,14 +1127,14 @@
       <c r="F15">
         <v>0.85</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="15">
         <v>0.89</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>0.87</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -885,7 +1144,7 @@
       <c r="C16">
         <v>0.79</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="15">
         <v>0.8</v>
       </c>
       <c r="E16">
@@ -894,11 +1153,11 @@
       <c r="F16">
         <v>0.76</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="15">
         <v>0.79</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -908,7 +1167,7 @@
       <c r="C17">
         <v>0.73</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="15">
         <v>0.74</v>
       </c>
       <c r="E17">
@@ -917,11 +1176,11 @@
       <c r="F17">
         <v>0.72</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="15">
         <v>0.74</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -931,7 +1190,7 @@
       <c r="C18">
         <v>0.72</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="15">
         <v>0.8</v>
       </c>
       <c r="E18">
@@ -940,11 +1199,11 @@
       <c r="F18">
         <v>0.77</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="15">
         <v>0.82</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -954,7 +1213,7 @@
       <c r="C19">
         <v>0.97</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="15">
         <v>0.97</v>
       </c>
       <c r="E19">
@@ -963,11 +1222,11 @@
       <c r="F19">
         <v>0.97</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="15">
         <v>0.98</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -977,7 +1236,7 @@
       <c r="C20">
         <v>0.8</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="15">
         <v>0.87</v>
       </c>
       <c r="E20">
@@ -986,11 +1245,11 @@
       <c r="F20">
         <v>0.83</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="15">
         <v>0.83</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +1259,7 @@
       <c r="C21">
         <v>0.86</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="15">
         <v>0.93</v>
       </c>
       <c r="E21">
@@ -1009,14 +1268,14 @@
       <c r="F21">
         <v>0.93</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="15">
         <v>0.93</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>0.93</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1026,7 +1285,7 @@
       <c r="C22">
         <v>0.89</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="15">
         <v>0.96</v>
       </c>
       <c r="E22">
@@ -1035,14 +1294,14 @@
       <c r="F22">
         <v>0.96</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="15">
         <v>0.96</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>0.96</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1052,7 +1311,7 @@
       <c r="C23">
         <v>0.84</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="15">
         <v>0.85</v>
       </c>
       <c r="E23">
@@ -1061,11 +1320,11 @@
       <c r="F23">
         <v>0.84</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="15">
         <v>0.86</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1075,7 +1334,7 @@
       <c r="C24">
         <v>0.86</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="15">
         <v>0.89</v>
       </c>
       <c r="E24">
@@ -1084,71 +1343,77 @@
       <c r="F24">
         <v>0.88</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="15">
         <v>0.89</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="11">
         <v>0.72</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="11">
         <v>0.73</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="23">
         <v>0.73</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="11">
         <v>0.67</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="11">
         <v>0.72</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="23">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <f>AVERAGE(B15:B25)</f>
-        <v>0.72909090909090923</v>
+        <f>AVERAGE(B3:B25)</f>
+        <v>0.6704347826086956</v>
       </c>
       <c r="C26">
-        <f>AVERAGE(C15:C25)</f>
-        <v>0.81454545454545446</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26:J26" si="0">AVERAGE(D15:D25)</f>
-        <v>0.85545454545454547</v>
+        <f>AVERAGE(C3:C25)</f>
+        <v>0.79695652173913056</v>
+      </c>
+      <c r="D26" s="15">
+        <f>AVERAGE(D3:D25)</f>
+        <v>0.82869565217391317</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0.8263636363636363</v>
+        <f t="shared" ref="E26:G26" si="0">AVERAGE(E3:E25)</f>
+        <v>0.81956521739130472</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>0.83909090909090911</v>
-      </c>
-      <c r="G26">
+        <v>0.82043478260869551</v>
+      </c>
+      <c r="G26" s="15">
         <f t="shared" si="0"/>
-        <v>0.85545454545454547</v>
-      </c>
-      <c r="H26" t="e">
-        <f t="shared" si="0"/>
+        <v>0.83565217391304358</v>
+      </c>
+      <c r="K26" t="e">
+        <f t="shared" ref="K26:M26" si="1">AVERAGE(K15:K25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" t="e">
-        <f t="shared" si="0"/>
+      <c r="L26" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
+      <c r="M26">
+        <f t="shared" si="1"/>
         <v>0.91999999999999993</v>
       </c>
     </row>
@@ -1157,7 +1422,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1165,608 +1430,763 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE2837E-B60A-C544-9619-7772CC4875CB}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <selection pane="topRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" style="15"/>
+    <col min="7" max="7" width="10.83203125" style="15"/>
+    <col min="10" max="10" width="10.83203125" style="15"/>
+    <col min="13" max="13" width="10.83203125" style="15"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="4" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
+      <c r="B3" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="C3" s="4">
         <v>0.75</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="14">
         <v>0.8</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
+      <c r="E3" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.78</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5">
+      <c r="G3" s="14">
+        <v>0.78</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="14">
         <v>0.48</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5">
+      <c r="B4" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="C4" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5">
+      <c r="D4" s="15">
+        <v>0.72</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.69</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="14">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
+      <c r="B5" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="C5" s="4">
         <v>0.73</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="14">
         <v>0.71</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5">
+      <c r="E5" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G5" s="15">
         <v>0.78</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="14">
         <v>0.71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
+      <c r="B6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="C6" s="4">
         <v>0.66</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="14">
         <v>0.62</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
+      <c r="E6" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="G6" s="14">
         <v>0.62</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
+      <c r="B7" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="C7" s="4">
         <v>0.74</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="14">
         <v>0.71</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
+      <c r="E7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="G7" s="14">
         <v>0.85</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
+      <c r="B8" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C8" s="4">
         <v>0.84</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="14">
         <v>0.8</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5">
+      <c r="E8" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="14">
         <v>0.85</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
+      <c r="B9" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="C9" s="4">
         <v>0.98</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="14">
         <v>0.96</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
+      <c r="E9" s="4">
         <v>0.96</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
+      <c r="F9" s="4">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="G9" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="14">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
+      <c r="B10" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C10" s="4">
         <v>0.77</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="14">
         <v>0.89</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
+      <c r="E10" s="4">
         <v>0.77</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5">
+      <c r="F10" s="4">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="G10" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="14">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
+      <c r="B11" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C11" s="4">
         <v>0.81</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="14">
         <v>0.81</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
+      <c r="E11" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.81</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="G11" s="14">
+        <v>0.81</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5">
+      <c r="B12" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="C12" s="4">
         <v>0.61</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5">
+      <c r="E12" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G12" s="14">
         <v>0.75</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5">
+      <c r="B13" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="C13" s="4">
         <v>0.53</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="14">
         <v>0.44</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5">
+      <c r="E13" s="4">
         <v>0.53</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="F13" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
+      <c r="B14" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="C14" s="4">
         <v>0.75</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="14">
         <v>0.86</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
+      <c r="E14" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="G14" s="14">
         <v>0.74</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="16">
         <v>0.81</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="16">
         <v>0.8</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="17">
         <v>0.76</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="16">
         <v>0.75</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="16">
         <v>0.76</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="17">
         <v>0.9</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17">
         <v>0.76</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>0.74</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.73</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="14">
         <v>0.76</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>0.69</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>0.71</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="14">
         <v>0.73</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>0.71</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.7</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="14">
         <v>0.72</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>0.67</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>0.69</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="14">
         <v>0.73</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.68</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.6</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="14">
         <v>0.84</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>0.67</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>0.61</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="14">
         <v>0.8</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>0.95</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.95</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="14">
         <v>0.95</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>0.96</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>0.96</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="14">
         <v>0.98</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>0.78</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.8</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="14">
         <v>0.89</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>0.69</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>0.69</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="14">
         <v>0.69</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>0.89</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.9</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="14">
         <v>0.87</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>0.87</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>0.87</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="14">
         <v>0.87</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="14">
         <v>0.87</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>0.94</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.93</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="14">
         <v>0.93</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>0.93</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>0.93</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="14">
         <v>0.93</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="14">
         <v>0.93</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>0.81</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>0.8</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="14">
         <v>0.71</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>0.79</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>0.78</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="14">
         <v>0.83</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>0.83</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0.8</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="14">
         <v>0.87</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>0.8</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>0.84</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="14">
         <v>0.87</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>0.69</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>0.7</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="14">
         <v>0.73</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>0.63</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>0.7</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="14">
         <v>0.69</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1774,248 +2194,378 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7628188B-1FB4-B34A-9DCE-3ACC53458D83}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="10"/>
+    <col min="8" max="8" width="10.83203125" style="10"/>
+    <col min="11" max="11" width="13.1640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>0.78</v>
+      </c>
       <c r="C3">
         <v>0.76</v>
       </c>
       <c r="D3">
         <v>0.8</v>
       </c>
+      <c r="E3" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="F3">
+        <v>0.78</v>
+      </c>
       <c r="G3">
         <v>0.78</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>0.69</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="C4">
         <v>0.74</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="J4">
+      <c r="D4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="F4">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0.74</v>
+      </c>
+      <c r="M4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>0.68</v>
+      </c>
       <c r="C5">
         <v>0.81</v>
       </c>
       <c r="D5">
         <v>0.84</v>
       </c>
+      <c r="E5" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="F5">
+        <v>0.83</v>
+      </c>
       <c r="G5">
         <v>0.85</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>0.66</v>
+      </c>
       <c r="C6">
         <v>0.71</v>
       </c>
       <c r="D6">
         <v>0.79</v>
       </c>
+      <c r="E6" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="F6">
+        <v>0.76</v>
+      </c>
       <c r="G6">
         <v>0.79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7">
+        <v>0.48</v>
+      </c>
       <c r="C7">
         <v>0.74</v>
       </c>
       <c r="D7">
         <v>0.84</v>
       </c>
+      <c r="E7" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="F7">
+        <v>0.84</v>
+      </c>
       <c r="G7">
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="C8">
         <v>0.84</v>
       </c>
       <c r="D8">
         <v>0.89</v>
       </c>
+      <c r="E8" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="F8">
+        <v>0.89</v>
+      </c>
       <c r="G8">
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9">
+        <v>0.93</v>
+      </c>
       <c r="C9">
         <v>0.98</v>
       </c>
       <c r="D9">
         <v>0.98</v>
       </c>
+      <c r="E9" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="F9">
+        <v>0.98</v>
+      </c>
       <c r="G9">
         <v>0.98</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>0.98</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
+      <c r="B10">
+        <v>0.88</v>
+      </c>
       <c r="C10">
         <v>0.77</v>
       </c>
       <c r="D10">
         <v>0.91</v>
       </c>
+      <c r="E10" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="F10">
+        <v>0.88</v>
+      </c>
       <c r="G10">
         <v>0.88</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>0.88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
+      <c r="B11">
+        <v>0.32</v>
+      </c>
       <c r="C11">
         <v>0.81</v>
       </c>
       <c r="D11">
         <v>0.9</v>
       </c>
+      <c r="E11" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>0.87</v>
+      </c>
       <c r="G11">
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
+      <c r="B12">
+        <v>0.42</v>
+      </c>
       <c r="C12">
         <v>0.61</v>
       </c>
       <c r="D12">
         <v>0.75</v>
       </c>
+      <c r="E12" s="10">
+        <v>0.68</v>
+      </c>
+      <c r="F12">
+        <v>0.69</v>
+      </c>
       <c r="G12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
+      <c r="B13">
+        <v>0.48</v>
+      </c>
       <c r="C13">
         <v>0.55000000000000004</v>
       </c>
       <c r="D13">
         <v>0.54</v>
       </c>
+      <c r="E13" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F13">
+        <v>0.52</v>
+      </c>
       <c r="G13">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="B14" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="C14" s="11">
         <v>0.84</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="11">
         <v>0.86</v>
       </c>
-      <c r="G14">
+      <c r="E14" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="G14" s="11">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2028,7 +2578,7 @@
       <c r="D15">
         <v>0.87</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="10">
         <v>0.81</v>
       </c>
       <c r="F15">
@@ -2037,11 +2587,11 @@
       <c r="G15">
         <v>0.89</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>0.87</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2054,7 +2604,7 @@
       <c r="D16">
         <v>0.8</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="10">
         <v>0.75</v>
       </c>
       <c r="F16">
@@ -2064,7 +2614,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2077,7 +2627,7 @@
       <c r="D17">
         <v>0.74</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="10">
         <v>0.71</v>
       </c>
       <c r="F17">
@@ -2087,7 +2637,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2100,7 +2650,7 @@
       <c r="D18">
         <v>0.8</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="10">
         <v>0.75</v>
       </c>
       <c r="F18">
@@ -2110,7 +2660,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2123,7 +2673,7 @@
       <c r="D19">
         <v>0.97</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="10">
         <v>0.97</v>
       </c>
       <c r="F19">
@@ -2133,7 +2683,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2146,7 +2696,7 @@
       <c r="D20">
         <v>0.87</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="10">
         <v>0.83</v>
       </c>
       <c r="F20">
@@ -2156,7 +2706,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2169,7 +2719,7 @@
       <c r="D21">
         <v>0.93</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="10">
         <v>0.93</v>
       </c>
       <c r="F21">
@@ -2178,11 +2728,11 @@
       <c r="G21">
         <v>0.93</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>0.93</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2195,7 +2745,7 @@
       <c r="D22">
         <v>0.96</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="10">
         <v>0.96</v>
       </c>
       <c r="F22">
@@ -2204,11 +2754,11 @@
       <c r="G22">
         <v>0.96</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>0.96</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2221,7 +2771,7 @@
       <c r="D23">
         <v>0.85</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="10">
         <v>0.85</v>
       </c>
       <c r="F23">
@@ -2231,7 +2781,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2244,7 +2794,7 @@
       <c r="D24">
         <v>0.89</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="10">
         <v>0.85</v>
       </c>
       <c r="F24">
@@ -2254,7 +2804,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2267,7 +2817,7 @@
       <c r="D25">
         <v>0.73</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="10">
         <v>0.67</v>
       </c>
       <c r="F25">
@@ -2278,11 +2828,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2299,376 +2850,376 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Testing_Result/Result.xlsx
+++ b/Testing_Result/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Documents/GitHub/SDP/Testing_Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1FE52-68E1-6C48-8515-6383071E5B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2038D5-E846-444F-9D09-BC512A29976D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="500" windowWidth="28620" windowHeight="15800" xr2:uid="{901090D2-3000-7642-B970-AD517F5AFA05}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="34">
   <si>
     <t>ant-1.6</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>SVM RBF</t>
+  </si>
+  <si>
+    <t>hhh</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I28" sqref="I28"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,7 +801,9 @@
       <c r="G2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2" t="s">

--- a/Testing_Result/Result.xlsx
+++ b/Testing_Result/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Documents/GitHub/SDP/Testing_Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2038D5-E846-444F-9D09-BC512A29976D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E35F076-761E-1141-A12F-A08695B067BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="500" windowWidth="28620" windowHeight="15800" xr2:uid="{901090D2-3000-7642-B970-AD517F5AFA05}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="33">
   <si>
     <t>ant-1.6</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>SVM RBF</t>
-  </si>
-  <si>
-    <t>hhh</t>
   </si>
 </sst>
 </file>
@@ -801,9 +798,7 @@
       <c r="G2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="21"/>
       <c r="K2" s="2" t="s">

--- a/Testing_Result/Result.xlsx
+++ b/Testing_Result/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Documents/GitHub/SDP/Testing_Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E35F076-761E-1141-A12F-A08695B067BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2578708A-FE5B-8342-9568-1D1D460C256E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="500" windowWidth="28620" windowHeight="15800" xr2:uid="{901090D2-3000-7642-B970-AD517F5AFA05}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="34">
   <si>
     <t>ant-1.6</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>SVM RBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jj</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,7 +763,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>

--- a/Testing_Result/Result.xlsx
+++ b/Testing_Result/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Documents/GitHub/SDP/Testing_Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2578708A-FE5B-8342-9568-1D1D460C256E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F33A73D-A6F6-614A-A3CF-7D3004C4D9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="28620" windowHeight="15800" xr2:uid="{901090D2-3000-7642-B970-AD517F5AFA05}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="28620" windowHeight="15800" activeTab="2" xr2:uid="{901090D2-3000-7642-B970-AD517F5AFA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="33">
   <si>
     <t>ant-1.6</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>SVM RBF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jj</t>
   </si>
 </sst>
 </file>
@@ -307,17 +304,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF4472C4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -380,17 +366,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -413,20 +407,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -745,72 +744,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E06810-3D41-FB4E-89FA-F81CF008A409}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:D1"/>
+      <selection pane="topRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="15"/>
-    <col min="7" max="7" width="10.83203125" style="15"/>
-    <col min="10" max="10" width="10.83203125" style="15"/>
+    <col min="4" max="4" width="10.83203125" style="14"/>
+    <col min="7" max="7" width="10.83203125" style="14"/>
+    <col min="10" max="10" width="10.83203125" style="14"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -824,7 +831,7 @@
       <c r="C3">
         <v>0.76</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0.8</v>
       </c>
       <c r="E3">
@@ -833,7 +840,10 @@
       <c r="F3">
         <v>0.78</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
+        <v>0.78</v>
+      </c>
+      <c r="H3" s="24">
         <v>0.78</v>
       </c>
       <c r="M3">
@@ -850,7 +860,7 @@
       <c r="C4">
         <v>0.74</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0.55000000000000004</v>
       </c>
       <c r="E4">
@@ -859,8 +869,11 @@
       <c r="F4">
         <v>0.75</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.74</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0.75</v>
       </c>
       <c r="M4">
         <v>0.75</v>
@@ -876,7 +889,7 @@
       <c r="C5">
         <v>0.81</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0.84</v>
       </c>
       <c r="E5">
@@ -885,7 +898,10 @@
       <c r="F5">
         <v>0.83</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
+        <v>0.84</v>
+      </c>
+      <c r="H5" s="24">
         <v>0.84</v>
       </c>
       <c r="M5">
@@ -902,7 +918,7 @@
       <c r="C6">
         <v>0.71</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0.79</v>
       </c>
       <c r="E6">
@@ -911,8 +927,11 @@
       <c r="F6">
         <v>0.76</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>0.78</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.79</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -925,7 +944,7 @@
       <c r="C7">
         <v>0.84</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0.84</v>
       </c>
       <c r="E7">
@@ -934,8 +953,11 @@
       <c r="F7">
         <v>0.84</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>0.85</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.84</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -948,7 +970,7 @@
       <c r="C8">
         <v>0.7</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>0.89</v>
       </c>
       <c r="E8">
@@ -957,8 +979,11 @@
       <c r="F8">
         <v>0.89</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>0.9</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0.89</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -971,7 +996,7 @@
       <c r="C9">
         <v>0.98</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>0.98</v>
       </c>
       <c r="E9">
@@ -980,7 +1005,10 @@
       <c r="F9">
         <v>0.98</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="H9" s="24">
         <v>0.98</v>
       </c>
       <c r="M9">
@@ -997,7 +1025,7 @@
       <c r="C10">
         <v>0.88</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>0.91</v>
       </c>
       <c r="E10">
@@ -1006,8 +1034,11 @@
       <c r="F10">
         <v>0.88</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>0.87</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.88</v>
       </c>
       <c r="M10">
         <v>0.88</v>
@@ -1023,7 +1054,7 @@
       <c r="C11">
         <v>0.89</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>0.9</v>
       </c>
       <c r="E11">
@@ -1032,7 +1063,10 @@
       <c r="F11">
         <v>0.87</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="24">
         <v>0.9</v>
       </c>
     </row>
@@ -1046,7 +1080,7 @@
       <c r="C12">
         <v>0.67</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>0.75</v>
       </c>
       <c r="E12">
@@ -1055,8 +1089,11 @@
       <c r="F12">
         <v>0.69</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>0.75</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0.68</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1069,7 +1106,7 @@
       <c r="C13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>0.54</v>
       </c>
       <c r="E13">
@@ -1078,38 +1115,43 @@
       <c r="F13">
         <v>0.52</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>0.56000000000000005</v>
       </c>
+      <c r="H13" s="24">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>0.66</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>0.84</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="20">
         <v>0.86</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>0.88</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0.85</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="20">
         <v>0.86</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="H14" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1121,7 +1163,7 @@
       <c r="C15">
         <v>0.77</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>0.87</v>
       </c>
       <c r="E15">
@@ -1130,8 +1172,11 @@
       <c r="F15">
         <v>0.85</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>0.89</v>
+      </c>
+      <c r="H15" s="24">
+        <v>0.87</v>
       </c>
       <c r="M15">
         <v>0.87</v>
@@ -1147,7 +1192,7 @@
       <c r="C16">
         <v>0.79</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>0.8</v>
       </c>
       <c r="E16">
@@ -1156,7 +1201,10 @@
       <c r="F16">
         <v>0.76</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
+        <v>0.79</v>
+      </c>
+      <c r="H16" s="24">
         <v>0.79</v>
       </c>
     </row>
@@ -1170,7 +1218,7 @@
       <c r="C17">
         <v>0.73</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>0.74</v>
       </c>
       <c r="E17">
@@ -1179,8 +1227,11 @@
       <c r="F17">
         <v>0.72</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>0.74</v>
+      </c>
+      <c r="H17" s="24">
+        <v>0.72</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1193,7 +1244,7 @@
       <c r="C18">
         <v>0.72</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>0.8</v>
       </c>
       <c r="E18">
@@ -1202,8 +1253,11 @@
       <c r="F18">
         <v>0.77</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <v>0.82</v>
+      </c>
+      <c r="H18" s="24">
+        <v>0.78</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1216,7 +1270,7 @@
       <c r="C19">
         <v>0.97</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>0.97</v>
       </c>
       <c r="E19">
@@ -1225,8 +1279,11 @@
       <c r="F19">
         <v>0.97</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>0.98</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0.97</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1239,7 +1296,7 @@
       <c r="C20">
         <v>0.8</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>0.87</v>
       </c>
       <c r="E20">
@@ -1248,7 +1305,10 @@
       <c r="F20">
         <v>0.83</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="H20" s="24">
         <v>0.83</v>
       </c>
     </row>
@@ -1262,7 +1322,7 @@
       <c r="C21">
         <v>0.86</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>0.93</v>
       </c>
       <c r="E21">
@@ -1271,7 +1331,10 @@
       <c r="F21">
         <v>0.93</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="H21" s="24">
         <v>0.93</v>
       </c>
       <c r="M21">
@@ -1288,7 +1351,7 @@
       <c r="C22">
         <v>0.89</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>0.96</v>
       </c>
       <c r="E22">
@@ -1297,8 +1360,11 @@
       <c r="F22">
         <v>0.96</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <v>0.96</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.996</v>
       </c>
       <c r="M22">
         <v>0.96</v>
@@ -1314,7 +1380,7 @@
       <c r="C23">
         <v>0.84</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>0.85</v>
       </c>
       <c r="E23">
@@ -1323,8 +1389,11 @@
       <c r="F23">
         <v>0.84</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>0.86</v>
+      </c>
+      <c r="H23" s="24">
+        <v>0.85</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1337,7 +1406,7 @@
       <c r="C24">
         <v>0.86</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>0.89</v>
       </c>
       <c r="E24">
@@ -1346,38 +1415,43 @@
       <c r="F24">
         <v>0.88</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <v>0.89</v>
       </c>
+      <c r="H24" s="24">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>0.72</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>0.73</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="20">
         <v>0.73</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>0.67</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>0.72</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="20">
         <v>0.72</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="H25" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1391,7 +1465,7 @@
         <f>AVERAGE(C3:C25)</f>
         <v>0.79695652173913056</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <f>AVERAGE(D3:D25)</f>
         <v>0.82869565217391317</v>
       </c>
@@ -1403,29 +1477,42 @@
         <f t="shared" si="0"/>
         <v>0.82043478260869551</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <f t="shared" si="0"/>
         <v>0.83565217391304358</v>
       </c>
+      <c r="H26" s="14">
+        <f t="shared" ref="H26" si="1">AVERAGE(H3:H25)</f>
+        <v>0.82895652173913037</v>
+      </c>
+      <c r="I26" s="14" t="e">
+        <f t="shared" ref="I26" si="2">AVERAGE(I3:I25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="14" t="e">
+        <f t="shared" ref="J26" si="3">AVERAGE(J3:J25)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K26" t="e">
-        <f t="shared" ref="K26:M26" si="1">AVERAGE(K15:K25)</f>
+        <f t="shared" ref="K26:M26" si="4">AVERAGE(K15:K25)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.91999999999999993</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="K1:M1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1437,751 +1524,806 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F26" sqref="F26"/>
+      <selection pane="topRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="15"/>
-    <col min="7" max="7" width="10.83203125" style="15"/>
-    <col min="10" max="10" width="10.83203125" style="15"/>
-    <col min="13" max="13" width="10.83203125" style="15"/>
+    <col min="4" max="4" width="10.83203125" style="14"/>
+    <col min="7" max="7" width="10.83203125" style="14"/>
+    <col min="10" max="10" width="10.83203125" style="14"/>
+    <col min="13" max="13" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="8" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="J2" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.78</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.75</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>0.8</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.79</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.78</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>0.78</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="14">
+      <c r="H3" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="13">
         <v>0.48</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.72</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0.72</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.69</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.64</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>0.69</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="14">
+      <c r="H4" s="3">
         <v>0.56999999999999995</v>
       </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="13">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.77</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.73</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.71</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.73</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.83</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>0.78</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="14">
+      <c r="H5" s="25">
         <v>0.71</v>
       </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="13">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.67</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.66</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.62</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.65</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.76</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>0.62</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="H6" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.81</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.74</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>0.71</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.7</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.84</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>0.85</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="14"/>
+      <c r="H7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.87</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.84</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>0.8</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0.8</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.8</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>0.85</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="14"/>
+      <c r="H8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.97</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.98</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>0.96</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.96</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.96</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>0.96</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="14">
+      <c r="H9" s="3">
         <v>0.96</v>
       </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="13">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.85</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.77</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>0.89</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.77</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.77</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>0.77</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="14">
+      <c r="H10" s="3">
         <v>0.77</v>
       </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="13">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.88</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.81</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>0.81</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.87</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0.81</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>0.81</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="14"/>
+      <c r="H11" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0.72</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0.61</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.73</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0.68</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>0.75</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="14"/>
+      <c r="H12" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0.44</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0.53</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>0.44</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.53</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.46</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>0.53</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="14"/>
+      <c r="H13" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>0.74</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>0.75</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>0.86</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>0.87</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0.77</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>0.74</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="H14" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>0.81</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>0.8</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>0.76</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>0.75</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>0.76</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>0.9</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17">
+      <c r="H15" s="15">
         <v>0.76</v>
       </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0.74</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0.73</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>0.76</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.69</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.71</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>0.73</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="14"/>
+      <c r="H16" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0.71</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>0.7</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>0.72</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>0.67</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>0.69</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>0.73</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="14"/>
+      <c r="H17" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>0.68</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>0.6</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>0.84</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>0.67</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>0.61</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>0.8</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="14"/>
+      <c r="H18" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>0.95</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>0.95</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>0.95</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0.96</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0.96</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>0.98</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="14"/>
+      <c r="H19" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>0.78</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>0.8</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>0.89</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0.69</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0.69</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>0.69</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="14"/>
+      <c r="H20" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.89</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0.9</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>0.87</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.87</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>0.87</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>0.87</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="14">
+      <c r="H21" s="3">
         <v>0.87</v>
       </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="13">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>0.94</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>0.93</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>0.93</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>0.93</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>0.93</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>0.93</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="14">
+      <c r="H22" s="3">
         <v>0.93</v>
       </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="13">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>0.81</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>0.8</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>0.71</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>0.79</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.78</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>0.83</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="14"/>
+      <c r="H23" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>0.83</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>0.8</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>0.87</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>0.8</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>0.84</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>0.87</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="14"/>
+      <c r="H24" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>0.69</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>0.7</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>0.73</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>0.63</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>0.7</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>0.69</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="14"/>
+      <c r="H25" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2199,79 +2341,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7628188B-1FB4-B34A-9DCE-3ACC53458D83}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J17" sqref="J17"/>
+      <selection pane="topRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.83203125" style="10"/>
-    <col min="8" max="8" width="10.83203125" style="10"/>
-    <col min="11" max="11" width="13.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="9"/>
+    <col min="8" max="8" width="10.83203125" style="9"/>
+    <col min="11" max="11" width="13.1640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2288,13 +2430,16 @@
       <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>0.79</v>
       </c>
       <c r="F3">
         <v>0.78</v>
       </c>
       <c r="G3">
+        <v>0.78</v>
+      </c>
+      <c r="H3" s="9">
         <v>0.78</v>
       </c>
       <c r="M3">
@@ -2314,7 +2459,7 @@
       <c r="D4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>0.74</v>
       </c>
       <c r="F4">
@@ -2322,6 +2467,9 @@
       </c>
       <c r="G4">
         <v>0.74</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.75</v>
       </c>
       <c r="M4">
         <v>0.75</v>
@@ -2340,7 +2488,7 @@
       <c r="D5">
         <v>0.84</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>0.83</v>
       </c>
       <c r="F5">
@@ -2348,6 +2496,9 @@
       </c>
       <c r="G5">
         <v>0.85</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.84</v>
       </c>
       <c r="M5">
         <v>0.84</v>
@@ -2366,13 +2517,16 @@
       <c r="D6">
         <v>0.79</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>0.78</v>
       </c>
       <c r="F6">
         <v>0.76</v>
       </c>
       <c r="G6">
+        <v>0.79</v>
+      </c>
+      <c r="H6" s="9">
         <v>0.79</v>
       </c>
     </row>
@@ -2389,7 +2543,7 @@
       <c r="D7">
         <v>0.84</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>0.84</v>
       </c>
       <c r="F7">
@@ -2397,6 +2551,9 @@
       </c>
       <c r="G7">
         <v>0.85</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.84</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2412,7 +2569,7 @@
       <c r="D8">
         <v>0.89</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>0.89</v>
       </c>
       <c r="F8">
@@ -2420,6 +2577,9 @@
       </c>
       <c r="G8">
         <v>0.9</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.89</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2435,13 +2595,16 @@
       <c r="D9">
         <v>0.98</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>0.98</v>
       </c>
       <c r="F9">
         <v>0.98</v>
       </c>
       <c r="G9">
+        <v>0.98</v>
+      </c>
+      <c r="H9" s="9">
         <v>0.98</v>
       </c>
       <c r="M9">
@@ -2461,13 +2624,16 @@
       <c r="D10">
         <v>0.91</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>0.88</v>
       </c>
       <c r="F10">
         <v>0.88</v>
       </c>
       <c r="G10">
+        <v>0.88</v>
+      </c>
+      <c r="H10" s="9">
         <v>0.88</v>
       </c>
       <c r="M10">
@@ -2487,13 +2653,16 @@
       <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>0.9</v>
       </c>
       <c r="F11">
         <v>0.87</v>
       </c>
       <c r="G11">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="9">
         <v>0.9</v>
       </c>
     </row>
@@ -2510,7 +2679,7 @@
       <c r="D12">
         <v>0.75</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>0.68</v>
       </c>
       <c r="F12">
@@ -2518,6 +2687,9 @@
       </c>
       <c r="G12">
         <v>0.75</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.68</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -2533,7 +2705,7 @@
       <c r="D13">
         <v>0.54</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>0.56999999999999995</v>
       </c>
       <c r="F13">
@@ -2542,31 +2714,36 @@
       <c r="G13">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="H13" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>0.66</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>0.84</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>0.86</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>0.88</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0.85</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>0.86</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="H14" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2581,7 +2758,7 @@
       <c r="D15">
         <v>0.87</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>0.81</v>
       </c>
       <c r="F15">
@@ -2589,6 +2766,9 @@
       </c>
       <c r="G15">
         <v>0.89</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.87</v>
       </c>
       <c r="M15">
         <v>0.87</v>
@@ -2607,13 +2787,16 @@
       <c r="D16">
         <v>0.8</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>0.75</v>
       </c>
       <c r="F16">
         <v>0.76</v>
       </c>
       <c r="G16">
+        <v>0.79</v>
+      </c>
+      <c r="H16" s="9">
         <v>0.79</v>
       </c>
     </row>
@@ -2630,7 +2813,7 @@
       <c r="D17">
         <v>0.74</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>0.71</v>
       </c>
       <c r="F17">
@@ -2638,6 +2821,9 @@
       </c>
       <c r="G17">
         <v>0.74</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.72</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -2653,7 +2839,7 @@
       <c r="D18">
         <v>0.8</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>0.75</v>
       </c>
       <c r="F18">
@@ -2661,6 +2847,9 @@
       </c>
       <c r="G18">
         <v>0.82</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.78</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -2676,7 +2865,7 @@
       <c r="D19">
         <v>0.97</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>0.97</v>
       </c>
       <c r="F19">
@@ -2684,6 +2873,9 @@
       </c>
       <c r="G19">
         <v>0.98</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.97</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -2699,13 +2891,16 @@
       <c r="D20">
         <v>0.87</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>0.83</v>
       </c>
       <c r="F20">
         <v>0.83</v>
       </c>
       <c r="G20">
+        <v>0.83</v>
+      </c>
+      <c r="H20" s="9">
         <v>0.83</v>
       </c>
     </row>
@@ -2722,13 +2917,16 @@
       <c r="D21">
         <v>0.93</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>0.93</v>
       </c>
       <c r="F21">
         <v>0.93</v>
       </c>
       <c r="G21">
+        <v>0.93</v>
+      </c>
+      <c r="H21" s="9">
         <v>0.93</v>
       </c>
       <c r="M21">
@@ -2748,13 +2946,16 @@
       <c r="D22">
         <v>0.96</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>0.96</v>
       </c>
       <c r="F22">
         <v>0.96</v>
       </c>
       <c r="G22">
+        <v>0.96</v>
+      </c>
+      <c r="H22" s="9">
         <v>0.96</v>
       </c>
       <c r="M22">
@@ -2774,7 +2975,7 @@
       <c r="D23">
         <v>0.85</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>0.85</v>
       </c>
       <c r="F23">
@@ -2782,6 +2983,9 @@
       </c>
       <c r="G23">
         <v>0.86</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.85</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -2797,7 +3001,7 @@
       <c r="D24">
         <v>0.89</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>0.85</v>
       </c>
       <c r="F24">
@@ -2805,6 +3009,9 @@
       </c>
       <c r="G24">
         <v>0.89</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.87</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -2820,13 +3027,16 @@
       <c r="D25">
         <v>0.73</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>0.67</v>
       </c>
       <c r="F25">
         <v>0.72</v>
       </c>
       <c r="G25">
+        <v>0.72</v>
+      </c>
+      <c r="H25" s="9">
         <v>0.72</v>
       </c>
     </row>
@@ -2853,376 +3063,376 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Testing_Result/Result.xlsx
+++ b/Testing_Result/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Documents/GitHub/SDP/Testing_Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F33A73D-A6F6-614A-A3CF-7D3004C4D9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E239593-6E7A-5549-95BC-9A02F2C0D3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="500" windowWidth="28620" windowHeight="15800" activeTab="2" xr2:uid="{901090D2-3000-7642-B970-AD517F5AFA05}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="33">
   <si>
     <t>ant-1.6</t>
   </si>
@@ -383,7 +383,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -426,6 +426,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -746,7 +747,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H26" sqref="H26"/>
+      <selection pane="topRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,6 +847,12 @@
       <c r="H3" s="24">
         <v>0.78</v>
       </c>
+      <c r="I3" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.73</v>
+      </c>
       <c r="M3">
         <v>0.69</v>
       </c>
@@ -875,6 +882,12 @@
       <c r="H4" s="24">
         <v>0.75</v>
       </c>
+      <c r="I4">
+        <v>0.76</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.76</v>
+      </c>
       <c r="M4">
         <v>0.75</v>
       </c>
@@ -904,6 +917,12 @@
       <c r="H5" s="24">
         <v>0.84</v>
       </c>
+      <c r="I5" s="24">
+        <v>0.84</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.85</v>
+      </c>
       <c r="M5">
         <v>0.84</v>
       </c>
@@ -933,6 +952,12 @@
       <c r="H6" s="24">
         <v>0.79</v>
       </c>
+      <c r="I6" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -959,6 +984,12 @@
       <c r="H7" s="24">
         <v>0.84</v>
       </c>
+      <c r="I7" s="24">
+        <v>0.84</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -985,6 +1016,12 @@
       <c r="H8" s="24">
         <v>0.89</v>
       </c>
+      <c r="I8" s="24">
+        <v>0.89</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1011,6 +1048,12 @@
       <c r="H9" s="24">
         <v>0.98</v>
       </c>
+      <c r="I9" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.98</v>
+      </c>
       <c r="M9">
         <v>0.98</v>
       </c>
@@ -1040,6 +1083,12 @@
       <c r="H10" s="24">
         <v>0.88</v>
       </c>
+      <c r="I10" s="24">
+        <v>0.88</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.88</v>
+      </c>
       <c r="M10">
         <v>0.88</v>
       </c>
@@ -1069,6 +1118,12 @@
       <c r="H11" s="24">
         <v>0.9</v>
       </c>
+      <c r="I11" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1095,6 +1150,12 @@
       <c r="H12" s="24">
         <v>0.68</v>
       </c>
+      <c r="I12" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1121,6 +1182,12 @@
       <c r="H13" s="24">
         <v>0.55000000000000004</v>
       </c>
+      <c r="I13" s="24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
@@ -1147,8 +1214,12 @@
       <c r="H14" s="10">
         <v>0.86</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="20"/>
+      <c r="I14" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0.86</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -1178,6 +1249,12 @@
       <c r="H15" s="24">
         <v>0.87</v>
       </c>
+      <c r="I15" s="24">
+        <v>0.88</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.89</v>
+      </c>
       <c r="M15">
         <v>0.87</v>
       </c>
@@ -1207,6 +1284,12 @@
       <c r="H16" s="24">
         <v>0.79</v>
       </c>
+      <c r="I16" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1233,6 +1316,12 @@
       <c r="H17" s="24">
         <v>0.72</v>
       </c>
+      <c r="I17" s="24">
+        <v>0.72</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1259,6 +1348,12 @@
       <c r="H18" s="24">
         <v>0.78</v>
       </c>
+      <c r="I18" s="24">
+        <v>0.78</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1285,6 +1380,12 @@
       <c r="H19" s="24">
         <v>0.97</v>
       </c>
+      <c r="I19" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1311,6 +1412,12 @@
       <c r="H20" s="24">
         <v>0.83</v>
       </c>
+      <c r="I20" s="24">
+        <v>0.83</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1337,6 +1444,12 @@
       <c r="H21" s="24">
         <v>0.93</v>
       </c>
+      <c r="I21" s="24">
+        <v>0.93</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.93</v>
+      </c>
       <c r="M21">
         <v>0.93</v>
       </c>
@@ -1366,6 +1479,12 @@
       <c r="H22" s="24">
         <v>0.996</v>
       </c>
+      <c r="I22" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0.96</v>
+      </c>
       <c r="M22">
         <v>0.96</v>
       </c>
@@ -1395,6 +1514,12 @@
       <c r="H23" s="24">
         <v>0.85</v>
       </c>
+      <c r="I23" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1421,6 +1546,12 @@
       <c r="H24" s="24">
         <v>0.87</v>
       </c>
+      <c r="I24" s="24">
+        <v>0.88</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -1447,8 +1578,12 @@
       <c r="H25" s="10">
         <v>0.72</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="20"/>
+      <c r="I25" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0.73</v>
+      </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -1485,13 +1620,13 @@
         <f t="shared" ref="H26" si="1">AVERAGE(H3:H25)</f>
         <v>0.82895652173913037</v>
       </c>
-      <c r="I26" s="14" t="e">
+      <c r="I26" s="14">
         <f t="shared" ref="I26" si="2">AVERAGE(I3:I25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="14" t="e">
+        <v>0.83304347826086955</v>
+      </c>
+      <c r="J26" s="14">
         <f t="shared" ref="J26" si="3">AVERAGE(J3:J25)</f>
-        <v>#DIV/0!</v>
+        <v>0.83695652173913049</v>
       </c>
       <c r="K26" t="e">
         <f t="shared" ref="K26:M26" si="4">AVERAGE(K15:K25)</f>
@@ -1520,11 +1655,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE2837E-B60A-C544-9619-7772CC4875CB}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J18" sqref="J18"/>
+      <selection pane="topRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1624,8 +1759,12 @@
       <c r="H3" s="3">
         <v>0.77</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0.72</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="13">
@@ -1657,8 +1796,12 @@
       <c r="H4" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.66</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="13">
@@ -1690,6 +1833,12 @@
       <c r="H5" s="25">
         <v>0.71</v>
       </c>
+      <c r="I5" s="25">
+        <v>0.71</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.78</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="13">
@@ -1721,8 +1870,12 @@
       <c r="H6" s="3">
         <v>0.62</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.68</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
@@ -1751,8 +1904,12 @@
       <c r="H7" s="3">
         <v>0.7</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.85</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="13"/>
@@ -1782,8 +1939,12 @@
       <c r="H8" s="3">
         <v>0.8</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="13"/>
+      <c r="I8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.89</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="13"/>
@@ -1813,8 +1974,12 @@
       <c r="H9" s="3">
         <v>0.96</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.96</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="13">
@@ -1846,8 +2011,12 @@
       <c r="H10" s="3">
         <v>0.77</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="13"/>
+      <c r="I10" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.77</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="13">
@@ -1879,8 +2048,12 @@
       <c r="H11" s="3">
         <v>0.81</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.81</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="13"/>
@@ -1910,8 +2083,12 @@
       <c r="H12" s="3">
         <v>0.66</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.66</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="13"/>
@@ -1941,8 +2118,12 @@
       <c r="H13" s="3">
         <v>0.46</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.51</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="13"/>
@@ -1972,8 +2153,12 @@
       <c r="H14" s="3">
         <v>0.74</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.78</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="13"/>
@@ -2003,8 +2188,12 @@
       <c r="H15" s="15">
         <v>0.76</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="I15" s="15">
+        <v>0.89</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.9</v>
+      </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="16">
@@ -2036,8 +2225,12 @@
       <c r="H16" s="3">
         <v>0.7</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.77</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="13"/>
@@ -2067,8 +2260,12 @@
       <c r="H17" s="3">
         <v>0.74</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.76</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="13"/>
@@ -2098,8 +2295,12 @@
       <c r="H18" s="3">
         <v>0.62</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.85</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="13"/>
@@ -2129,8 +2330,12 @@
       <c r="H19" s="3">
         <v>0.95</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.98</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="13"/>
@@ -2160,8 +2365,12 @@
       <c r="H20" s="3">
         <v>0.69</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="13"/>
+      <c r="I20" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.87</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="13"/>
@@ -2191,8 +2400,12 @@
       <c r="H21" s="3">
         <v>0.87</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0.87</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="13">
@@ -2224,8 +2437,12 @@
       <c r="H22" s="3">
         <v>0.93</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="13"/>
+      <c r="I22" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0.92</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="13">
@@ -2257,8 +2474,12 @@
       <c r="H23" s="3">
         <v>0.71</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="13"/>
+      <c r="I23" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0.88</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="13"/>
@@ -2288,8 +2509,12 @@
       <c r="H24" s="3">
         <v>0.77</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0.77</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="13"/>
@@ -2319,11 +2544,68 @@
       <c r="H25" s="3">
         <v>0.8</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="13"/>
+      <c r="I25" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0.72</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="17">
+        <f>AVERAGE(B3:B25)</f>
+        <v>0.78478260869565208</v>
+      </c>
+      <c r="C26" s="17">
+        <f t="shared" ref="C26:M26" si="0">AVERAGE(C3:C25)</f>
+        <v>0.75869565217391299</v>
+      </c>
+      <c r="D26" s="26">
+        <f t="shared" si="0"/>
+        <v>0.77913043478260857</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.76260869565217371</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.76695652173913031</v>
+      </c>
+      <c r="G26" s="26">
+        <f t="shared" si="0"/>
+        <v>0.7891304347826088</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.7439130434782607</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.76391304347826072</v>
+      </c>
+      <c r="J26" s="26">
+        <f t="shared" si="0"/>
+        <v>0.79826086956521725</v>
+      </c>
+      <c r="K26" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.75624999999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2339,11 +2621,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7628188B-1FB4-B34A-9DCE-3ACC53458D83}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H25" sqref="H25"/>
+      <selection pane="topRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2442,6 +2724,12 @@
       <c r="H3" s="9">
         <v>0.78</v>
       </c>
+      <c r="I3" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="24">
+        <v>0.73</v>
+      </c>
       <c r="M3">
         <v>0.69</v>
       </c>
@@ -2471,6 +2759,12 @@
       <c r="H4" s="9">
         <v>0.75</v>
       </c>
+      <c r="I4" s="24">
+        <v>0.76</v>
+      </c>
+      <c r="J4" s="24">
+        <v>0.76</v>
+      </c>
       <c r="M4">
         <v>0.75</v>
       </c>
@@ -2500,6 +2794,12 @@
       <c r="H5" s="9">
         <v>0.84</v>
       </c>
+      <c r="I5" s="24">
+        <v>0.84</v>
+      </c>
+      <c r="J5" s="24">
+        <v>0.85</v>
+      </c>
       <c r="M5">
         <v>0.84</v>
       </c>
@@ -2529,6 +2829,12 @@
       <c r="H6" s="9">
         <v>0.79</v>
       </c>
+      <c r="I6" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2555,6 +2861,12 @@
       <c r="H7" s="9">
         <v>0.84</v>
       </c>
+      <c r="I7" s="24">
+        <v>0.84</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2581,6 +2893,12 @@
       <c r="H8" s="9">
         <v>0.89</v>
       </c>
+      <c r="I8" s="24">
+        <v>0.89</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2607,6 +2925,12 @@
       <c r="H9" s="9">
         <v>0.98</v>
       </c>
+      <c r="I9" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0.98</v>
+      </c>
       <c r="M9">
         <v>0.98</v>
       </c>
@@ -2636,6 +2960,12 @@
       <c r="H10" s="9">
         <v>0.88</v>
       </c>
+      <c r="I10" s="24">
+        <v>0.88</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0.88</v>
+      </c>
       <c r="M10">
         <v>0.88</v>
       </c>
@@ -2665,6 +2995,12 @@
       <c r="H11" s="9">
         <v>0.9</v>
       </c>
+      <c r="I11" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2691,6 +3027,12 @@
       <c r="H12" s="9">
         <v>0.68</v>
       </c>
+      <c r="I12" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="J12" s="24">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2717,6 +3059,12 @@
       <c r="H13" s="9">
         <v>0.55000000000000004</v>
       </c>
+      <c r="I13" s="24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
@@ -2743,6 +3091,12 @@
       <c r="H14" s="11">
         <v>0.86</v>
       </c>
+      <c r="I14" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.86</v>
+      </c>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -2770,6 +3124,12 @@
       <c r="H15" s="9">
         <v>0.87</v>
       </c>
+      <c r="I15" s="24">
+        <v>0.88</v>
+      </c>
+      <c r="J15" s="24">
+        <v>0.89</v>
+      </c>
       <c r="M15">
         <v>0.87</v>
       </c>
@@ -2799,6 +3159,12 @@
       <c r="H16" s="9">
         <v>0.79</v>
       </c>
+      <c r="I16" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2825,6 +3191,12 @@
       <c r="H17" s="9">
         <v>0.72</v>
       </c>
+      <c r="I17" s="24">
+        <v>0.72</v>
+      </c>
+      <c r="J17" s="24">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -2851,6 +3223,12 @@
       <c r="H18" s="9">
         <v>0.78</v>
       </c>
+      <c r="I18" s="24">
+        <v>0.78</v>
+      </c>
+      <c r="J18" s="24">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -2877,6 +3255,12 @@
       <c r="H19" s="9">
         <v>0.97</v>
       </c>
+      <c r="I19" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="J19" s="24">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -2903,6 +3287,12 @@
       <c r="H20" s="9">
         <v>0.83</v>
       </c>
+      <c r="I20" s="24">
+        <v>0.83</v>
+      </c>
+      <c r="J20" s="24">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -2929,6 +3319,12 @@
       <c r="H21" s="9">
         <v>0.93</v>
       </c>
+      <c r="I21" s="24">
+        <v>0.93</v>
+      </c>
+      <c r="J21" s="24">
+        <v>0.93</v>
+      </c>
       <c r="M21">
         <v>0.93</v>
       </c>
@@ -2958,6 +3354,12 @@
       <c r="H22" s="9">
         <v>0.96</v>
       </c>
+      <c r="I22" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="J22" s="24">
+        <v>0.96</v>
+      </c>
       <c r="M22">
         <v>0.96</v>
       </c>
@@ -2987,6 +3389,12 @@
       <c r="H23" s="9">
         <v>0.85</v>
       </c>
+      <c r="I23" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="J23" s="24">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -3013,6 +3421,12 @@
       <c r="H24" s="9">
         <v>0.87</v>
       </c>
+      <c r="I24" s="24">
+        <v>0.88</v>
+      </c>
+      <c r="J24" s="24">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -3038,6 +3452,65 @@
       </c>
       <c r="H25" s="9">
         <v>0.72</v>
+      </c>
+      <c r="I25" s="24">
+        <v>0.72</v>
+      </c>
+      <c r="J25" s="24">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="17">
+        <f>AVERAGE(B3:B25)</f>
+        <v>0.67086956521739116</v>
+      </c>
+      <c r="C26" s="17">
+        <f t="shared" ref="C26:M26" si="0">AVERAGE(C3:C25)</f>
+        <v>0.78782608695652179</v>
+      </c>
+      <c r="D26" s="26">
+        <f t="shared" si="0"/>
+        <v>0.82869565217391317</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.81913043478260905</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.82043478260869551</v>
+      </c>
+      <c r="G26" s="26">
+        <f t="shared" si="0"/>
+        <v>0.8369565217391306</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.82739130434782615</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.83304347826086955</v>
+      </c>
+      <c r="J26" s="26">
+        <f t="shared" si="0"/>
+        <v>0.83695652173913049</v>
+      </c>
+      <c r="K26" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.86249999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Result/Result.xlsx
+++ b/Testing_Result/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Documents/GitHub/SDP/Testing_Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E239593-6E7A-5549-95BC-9A02F2C0D3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652EBA57-ED4F-4845-A049-02226463C175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="28620" windowHeight="15800" activeTab="2" xr2:uid="{901090D2-3000-7642-B970-AD517F5AFA05}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="28620" windowHeight="15800" activeTab="3" xr2:uid="{901090D2-3000-7642-B970-AD517F5AFA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="34">
   <si>
     <t>ant-1.6</t>
   </si>
@@ -117,9 +117,6 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>SVM</t>
-  </si>
-  <si>
     <t>Without FS</t>
   </si>
   <si>
@@ -136,6 +133,12 @@
   </si>
   <si>
     <t>SVM RBF</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
   </si>
 </sst>
 </file>
@@ -198,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -264,26 +267,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -300,26 +283,6 @@
       <bottom style="thick">
         <color rgb="FFA2B8E1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -356,12 +319,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFA2B8E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -372,8 +377,21 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -383,7 +401,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -402,31 +420,37 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -747,14 +771,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L15" sqref="L15"/>
+      <selection pane="topRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="14"/>
-    <col min="7" max="7" width="10.83203125" style="14"/>
-    <col min="10" max="10" width="10.83203125" style="14"/>
+    <col min="4" max="4" width="10.83203125" style="13"/>
+    <col min="7" max="7" width="10.83203125" style="13"/>
+    <col min="10" max="10" width="10.83203125" style="13"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -773,12 +797,12 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -786,40 +810,40 @@
     <row r="2" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -832,7 +856,7 @@
       <c r="C3">
         <v>0.76</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>0.8</v>
       </c>
       <c r="E3">
@@ -841,16 +865,16 @@
       <c r="F3">
         <v>0.78</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>0.78</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="19">
         <v>0.78</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="19">
         <v>0.8</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>0.73</v>
       </c>
       <c r="M3">
@@ -867,7 +891,7 @@
       <c r="C4">
         <v>0.74</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="E4">
@@ -876,16 +900,16 @@
       <c r="F4">
         <v>0.75</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>0.74</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="19">
         <v>0.75</v>
       </c>
       <c r="I4">
         <v>0.76</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>0.76</v>
       </c>
       <c r="M4">
@@ -902,7 +926,7 @@
       <c r="C5">
         <v>0.81</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.84</v>
       </c>
       <c r="E5">
@@ -911,16 +935,16 @@
       <c r="F5">
         <v>0.83</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>0.84</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="19">
         <v>0.84</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="19">
         <v>0.84</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>0.85</v>
       </c>
       <c r="M5">
@@ -937,7 +961,7 @@
       <c r="C6">
         <v>0.71</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.79</v>
       </c>
       <c r="E6">
@@ -946,16 +970,16 @@
       <c r="F6">
         <v>0.76</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>0.78</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="19">
         <v>0.79</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="19">
         <v>0.79</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>0.79</v>
       </c>
     </row>
@@ -969,7 +993,7 @@
       <c r="C7">
         <v>0.84</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>0.84</v>
       </c>
       <c r="E7">
@@ -978,16 +1002,16 @@
       <c r="F7">
         <v>0.84</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>0.85</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="19">
         <v>0.84</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="19">
         <v>0.84</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>0.85</v>
       </c>
     </row>
@@ -1001,7 +1025,7 @@
       <c r="C8">
         <v>0.7</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>0.89</v>
       </c>
       <c r="E8">
@@ -1010,16 +1034,16 @@
       <c r="F8">
         <v>0.89</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>0.9</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="19">
         <v>0.89</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="19">
         <v>0.89</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>0.9</v>
       </c>
     </row>
@@ -1033,7 +1057,7 @@
       <c r="C9">
         <v>0.98</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>0.98</v>
       </c>
       <c r="E9">
@@ -1042,16 +1066,16 @@
       <c r="F9">
         <v>0.98</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>0.98</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="19">
         <v>0.98</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="19">
         <v>0.98</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>0.98</v>
       </c>
       <c r="M9">
@@ -1068,7 +1092,7 @@
       <c r="C10">
         <v>0.88</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>0.91</v>
       </c>
       <c r="E10">
@@ -1077,16 +1101,16 @@
       <c r="F10">
         <v>0.88</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>0.87</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="19">
         <v>0.88</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="19">
         <v>0.88</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>0.88</v>
       </c>
       <c r="M10">
@@ -1103,7 +1127,7 @@
       <c r="C11">
         <v>0.89</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>0.9</v>
       </c>
       <c r="E11">
@@ -1112,16 +1136,16 @@
       <c r="F11">
         <v>0.87</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>0.9</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="19">
         <v>0.9</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="19">
         <v>0.9</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>0.9</v>
       </c>
     </row>
@@ -1135,7 +1159,7 @@
       <c r="C12">
         <v>0.67</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0.75</v>
       </c>
       <c r="E12">
@@ -1144,16 +1168,16 @@
       <c r="F12">
         <v>0.69</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>0.75</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="19">
         <v>0.68</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="19">
         <v>0.74</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>0.76</v>
       </c>
     </row>
@@ -1167,7 +1191,7 @@
       <c r="C13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>0.54</v>
       </c>
       <c r="E13">
@@ -1176,53 +1200,50 @@
       <c r="F13">
         <v>0.52</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="19">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:13" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="26">
         <v>0.66</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="26">
         <v>0.84</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="31">
         <v>0.86</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="26">
         <v>0.88</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="26">
         <v>0.85</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="31">
         <v>0.86</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="26">
         <v>0.86</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="26">
         <v>0.86</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="31">
         <v>0.86</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1234,7 +1255,7 @@
       <c r="C15">
         <v>0.77</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>0.87</v>
       </c>
       <c r="E15">
@@ -1243,17 +1264,20 @@
       <c r="F15">
         <v>0.85</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>0.89</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="19">
         <v>0.87</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="19">
         <v>0.88</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>0.89</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.81</v>
       </c>
       <c r="M15">
         <v>0.87</v>
@@ -1269,7 +1293,7 @@
       <c r="C16">
         <v>0.79</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>0.8</v>
       </c>
       <c r="E16">
@@ -1278,16 +1302,16 @@
       <c r="F16">
         <v>0.76</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>0.79</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="19">
         <v>0.79</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="19">
         <v>0.79</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>0.8</v>
       </c>
     </row>
@@ -1301,7 +1325,7 @@
       <c r="C17">
         <v>0.73</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>0.74</v>
       </c>
       <c r="E17">
@@ -1310,16 +1334,16 @@
       <c r="F17">
         <v>0.72</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>0.74</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="19">
         <v>0.72</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="19">
         <v>0.72</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>0.73</v>
       </c>
     </row>
@@ -1333,7 +1357,7 @@
       <c r="C18">
         <v>0.72</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>0.8</v>
       </c>
       <c r="E18">
@@ -1342,16 +1366,19 @@
       <c r="F18">
         <v>0.77</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>0.82</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="19">
         <v>0.78</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="19">
         <v>0.78</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="K18" s="19">
         <v>0.82</v>
       </c>
     </row>
@@ -1365,7 +1392,7 @@
       <c r="C19">
         <v>0.97</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>0.97</v>
       </c>
       <c r="E19">
@@ -1374,16 +1401,16 @@
       <c r="F19">
         <v>0.97</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>0.98</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="19">
         <v>0.97</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="19">
         <v>0.97</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>0.98</v>
       </c>
     </row>
@@ -1397,7 +1424,7 @@
       <c r="C20">
         <v>0.8</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>0.87</v>
       </c>
       <c r="E20">
@@ -1406,17 +1433,20 @@
       <c r="F20">
         <v>0.83</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>0.83</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="19">
         <v>0.83</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="19">
         <v>0.83</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>0.85</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0.79</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1429,7 +1459,7 @@
       <c r="C21">
         <v>0.86</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>0.93</v>
       </c>
       <c r="E21">
@@ -1438,17 +1468,20 @@
       <c r="F21">
         <v>0.93</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>0.93</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="19">
         <v>0.93</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="19">
         <v>0.93</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>0.93</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0.91</v>
       </c>
       <c r="M21">
         <v>0.93</v>
@@ -1464,7 +1497,7 @@
       <c r="C22">
         <v>0.89</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>0.96</v>
       </c>
       <c r="E22">
@@ -1473,16 +1506,16 @@
       <c r="F22">
         <v>0.96</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>0.96</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="19">
         <v>0.996</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="19">
         <v>0.96</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>0.96</v>
       </c>
       <c r="M22">
@@ -1499,7 +1532,7 @@
       <c r="C23">
         <v>0.84</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>0.85</v>
       </c>
       <c r="E23">
@@ -1508,16 +1541,16 @@
       <c r="F23">
         <v>0.84</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>0.86</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="19">
         <v>0.85</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="19">
         <v>0.85</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>0.86</v>
       </c>
     </row>
@@ -1531,7 +1564,7 @@
       <c r="C24">
         <v>0.86</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>0.89</v>
       </c>
       <c r="E24">
@@ -1540,57 +1573,54 @@
       <c r="F24">
         <v>0.88</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>0.89</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="19">
         <v>0.87</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="19">
         <v>0.88</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>0.88</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:13" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="26">
         <v>0.72</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="26">
         <v>0.73</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="31">
         <v>0.73</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="26">
         <v>0.67</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="26">
         <v>0.72</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="31">
         <v>0.72</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="26">
         <v>0.72</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="26">
         <v>0.72</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="31">
         <v>0.73</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <f>AVERAGE(B3:B25)</f>
@@ -1600,7 +1630,7 @@
         <f>AVERAGE(C3:C25)</f>
         <v>0.79695652173913056</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <f>AVERAGE(D3:D25)</f>
         <v>0.82869565217391317</v>
       </c>
@@ -1612,25 +1642,25 @@
         <f t="shared" si="0"/>
         <v>0.82043478260869551</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <f t="shared" si="0"/>
         <v>0.83565217391304358</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <f t="shared" ref="H26" si="1">AVERAGE(H3:H25)</f>
         <v>0.82895652173913037</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <f t="shared" ref="I26" si="2">AVERAGE(I3:I25)</f>
         <v>0.83304347826086955</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <f t="shared" ref="J26" si="3">AVERAGE(J3:J25)</f>
         <v>0.83695652173913049</v>
       </c>
-      <c r="K26" t="e">
+      <c r="K26">
         <f t="shared" ref="K26:M26" si="4">AVERAGE(K15:K25)</f>
-        <v>#DIV/0!</v>
+        <v>0.83250000000000002</v>
       </c>
       <c r="L26" t="e">
         <f t="shared" si="4"/>
@@ -1659,15 +1689,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J26" sqref="J26"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="14"/>
-    <col min="7" max="7" width="10.83203125" style="14"/>
-    <col min="10" max="10" width="10.83203125" style="14"/>
-    <col min="13" max="13" width="10.83203125" style="14"/>
+    <col min="4" max="4" width="10.83203125" style="13"/>
+    <col min="7" max="7" width="10.83203125" style="13"/>
+    <col min="10" max="10" width="10.83203125" style="13"/>
+    <col min="13" max="13" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -1679,59 +1709,59 @@
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="21" t="s">
+      <c r="H1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1744,7 +1774,7 @@
       <c r="C3" s="3">
         <v>0.75</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>0.8</v>
       </c>
       <c r="E3" s="3">
@@ -1753,7 +1783,7 @@
       <c r="F3" s="3">
         <v>0.78</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>0.78</v>
       </c>
       <c r="H3" s="3">
@@ -1762,12 +1792,12 @@
       <c r="I3" s="3">
         <v>0.8</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>0.72</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>0.48</v>
       </c>
     </row>
@@ -1781,7 +1811,7 @@
       <c r="C4" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0.72</v>
       </c>
       <c r="E4" s="3">
@@ -1790,7 +1820,7 @@
       <c r="F4" s="3">
         <v>0.64</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>0.69</v>
       </c>
       <c r="H4" s="3">
@@ -1799,12 +1829,12 @@
       <c r="I4" s="3">
         <v>0.65</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>0.66</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -1818,7 +1848,7 @@
       <c r="C5" s="3">
         <v>0.73</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>0.71</v>
       </c>
       <c r="E5" s="3">
@@ -1827,21 +1857,21 @@
       <c r="F5" s="3">
         <v>0.83</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>0.78</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="20">
         <v>0.71</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="20">
         <v>0.71</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>0.78</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>0.71</v>
       </c>
     </row>
@@ -1855,7 +1885,7 @@
       <c r="C6" s="3">
         <v>0.66</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>0.62</v>
       </c>
       <c r="E6" s="3">
@@ -1864,7 +1894,7 @@
       <c r="F6" s="3">
         <v>0.76</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>0.62</v>
       </c>
       <c r="H6" s="3">
@@ -1873,7 +1903,7 @@
       <c r="I6" s="3">
         <v>0.62</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>0.68</v>
       </c>
       <c r="K6" s="3"/>
@@ -1889,7 +1919,7 @@
       <c r="C7" s="3">
         <v>0.74</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>0.71</v>
       </c>
       <c r="E7" s="3">
@@ -1898,7 +1928,7 @@
       <c r="F7" s="3">
         <v>0.84</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>0.85</v>
       </c>
       <c r="H7" s="3">
@@ -1907,12 +1937,12 @@
       <c r="I7" s="3">
         <v>0.7</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>0.85</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="13"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -1924,7 +1954,7 @@
       <c r="C8" s="3">
         <v>0.84</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>0.8</v>
       </c>
       <c r="E8" s="3">
@@ -1933,7 +1963,7 @@
       <c r="F8" s="3">
         <v>0.8</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>0.85</v>
       </c>
       <c r="H8" s="3">
@@ -1942,12 +1972,12 @@
       <c r="I8" s="3">
         <v>0.8</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>0.89</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="13"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1959,7 +1989,7 @@
       <c r="C9" s="3">
         <v>0.98</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>0.96</v>
       </c>
       <c r="E9" s="3">
@@ -1968,7 +1998,7 @@
       <c r="F9" s="3">
         <v>0.96</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>0.96</v>
       </c>
       <c r="H9" s="3">
@@ -1977,12 +2007,12 @@
       <c r="I9" s="3">
         <v>0.96</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <v>0.96</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <v>0.96</v>
       </c>
     </row>
@@ -1996,7 +2026,7 @@
       <c r="C10" s="3">
         <v>0.77</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>0.89</v>
       </c>
       <c r="E10" s="3">
@@ -2005,7 +2035,7 @@
       <c r="F10" s="3">
         <v>0.77</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>0.77</v>
       </c>
       <c r="H10" s="3">
@@ -2014,12 +2044,12 @@
       <c r="I10" s="3">
         <v>0.77</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <v>0.77</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <v>0.77</v>
       </c>
     </row>
@@ -2033,7 +2063,7 @@
       <c r="C11" s="3">
         <v>0.81</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>0.81</v>
       </c>
       <c r="E11" s="3">
@@ -2042,7 +2072,7 @@
       <c r="F11" s="3">
         <v>0.81</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>0.81</v>
       </c>
       <c r="H11" s="3">
@@ -2056,7 +2086,7 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="13"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -2068,7 +2098,7 @@
       <c r="C12" s="3">
         <v>0.61</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>0.56999999999999995</v>
       </c>
       <c r="E12" s="3">
@@ -2077,7 +2107,7 @@
       <c r="F12" s="3">
         <v>0.68</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>0.75</v>
       </c>
       <c r="H12" s="3">
@@ -2086,12 +2116,12 @@
       <c r="I12" s="3">
         <v>0.61</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <v>0.66</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="13"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -2103,7 +2133,7 @@
       <c r="C13" s="3">
         <v>0.53</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>0.44</v>
       </c>
       <c r="E13" s="3">
@@ -2112,7 +2142,7 @@
       <c r="F13" s="3">
         <v>0.46</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>0.53</v>
       </c>
       <c r="H13" s="3">
@@ -2121,82 +2151,84 @@
       <c r="I13" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>0.51</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="24">
         <v>0.74</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="24">
         <v>0.75</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="25">
         <v>0.86</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="24">
         <v>0.87</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="24">
         <v>0.77</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="25">
         <v>0.74</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="24">
         <v>0.74</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="24">
         <v>0.74</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="25">
         <v>0.78</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="32">
         <v>0.81</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="32">
         <v>0.8</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="12">
         <v>0.76</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="32">
         <v>0.75</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="32">
         <v>0.76</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="12">
         <v>0.9</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="32">
         <v>0.76</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="32">
         <v>0.89</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="12">
         <v>0.9</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="16">
+      <c r="K15" s="32">
+        <v>0.81</v>
+      </c>
+      <c r="L15" s="32"/>
+      <c r="M15" s="12">
         <v>0.76</v>
       </c>
     </row>
@@ -2210,7 +2242,7 @@
       <c r="C16" s="3">
         <v>0.73</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>0.76</v>
       </c>
       <c r="E16" s="3">
@@ -2219,7 +2251,7 @@
       <c r="F16" s="3">
         <v>0.71</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>0.73</v>
       </c>
       <c r="H16" s="3">
@@ -2228,12 +2260,12 @@
       <c r="I16" s="3">
         <v>0.71</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <v>0.77</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="13"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -2245,7 +2277,7 @@
       <c r="C17" s="3">
         <v>0.7</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>0.72</v>
       </c>
       <c r="E17" s="3">
@@ -2254,7 +2286,7 @@
       <c r="F17" s="3">
         <v>0.69</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>0.73</v>
       </c>
       <c r="H17" s="3">
@@ -2263,12 +2295,12 @@
       <c r="I17" s="3">
         <v>0.8</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <v>0.76</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="13"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
@@ -2280,7 +2312,7 @@
       <c r="C18" s="3">
         <v>0.6</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>0.84</v>
       </c>
       <c r="E18" s="3">
@@ -2289,7 +2321,7 @@
       <c r="F18" s="3">
         <v>0.61</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>0.8</v>
       </c>
       <c r="H18" s="3">
@@ -2298,12 +2330,14 @@
       <c r="I18" s="3">
         <v>0.62</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <v>0.85</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3">
+        <v>0.8</v>
+      </c>
       <c r="L18" s="3"/>
-      <c r="M18" s="13"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -2315,7 +2349,7 @@
       <c r="C19" s="3">
         <v>0.95</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>0.95</v>
       </c>
       <c r="E19" s="3">
@@ -2324,7 +2358,7 @@
       <c r="F19" s="3">
         <v>0.96</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>0.98</v>
       </c>
       <c r="H19" s="3">
@@ -2333,12 +2367,12 @@
       <c r="I19" s="3">
         <v>0.95</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <v>0.98</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="13"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -2350,7 +2384,7 @@
       <c r="C20" s="3">
         <v>0.8</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>0.89</v>
       </c>
       <c r="E20" s="3">
@@ -2359,7 +2393,7 @@
       <c r="F20" s="3">
         <v>0.69</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>0.69</v>
       </c>
       <c r="H20" s="3">
@@ -2368,12 +2402,14 @@
       <c r="I20" s="3">
         <v>0.69</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <v>0.87</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>0.74</v>
+      </c>
       <c r="L20" s="3"/>
-      <c r="M20" s="13"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -2385,7 +2421,7 @@
       <c r="C21" s="3">
         <v>0.9</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>0.87</v>
       </c>
       <c r="E21" s="3">
@@ -2394,7 +2430,7 @@
       <c r="F21" s="3">
         <v>0.87</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>0.87</v>
       </c>
       <c r="H21" s="3">
@@ -2403,12 +2439,14 @@
       <c r="I21" s="3">
         <v>0.87</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <v>0.87</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <v>0.89</v>
+      </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <v>0.87</v>
       </c>
     </row>
@@ -2422,7 +2460,7 @@
       <c r="C22" s="3">
         <v>0.93</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>0.93</v>
       </c>
       <c r="E22" s="3">
@@ -2431,7 +2469,7 @@
       <c r="F22" s="3">
         <v>0.93</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <v>0.93</v>
       </c>
       <c r="H22" s="3">
@@ -2440,12 +2478,12 @@
       <c r="I22" s="3">
         <v>0.93</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="12">
         <v>0.92</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <v>0.93</v>
       </c>
     </row>
@@ -2459,7 +2497,7 @@
       <c r="C23" s="3">
         <v>0.8</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>0.71</v>
       </c>
       <c r="E23" s="3">
@@ -2468,7 +2506,7 @@
       <c r="F23" s="3">
         <v>0.78</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <v>0.83</v>
       </c>
       <c r="H23" s="3">
@@ -2477,12 +2515,12 @@
       <c r="I23" s="3">
         <v>0.87</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="12">
         <v>0.88</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="13"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -2494,7 +2532,7 @@
       <c r="C24" s="3">
         <v>0.8</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>0.87</v>
       </c>
       <c r="E24" s="3">
@@ -2503,7 +2541,7 @@
       <c r="F24" s="3">
         <v>0.84</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="12">
         <v>0.87</v>
       </c>
       <c r="H24" s="3">
@@ -2512,97 +2550,97 @@
       <c r="I24" s="3">
         <v>0.77</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="12">
         <v>0.77</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="24">
         <v>0.69</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="24">
         <v>0.7</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="25">
         <v>0.73</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="24">
         <v>0.63</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="24">
         <v>0.7</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="25">
         <v>0.69</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="24">
         <v>0.8</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="24">
         <v>0.74</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="25">
         <v>0.72</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="17">
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="10">
         <f>AVERAGE(B3:B25)</f>
         <v>0.78478260869565208</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="10">
         <f t="shared" ref="C26:M26" si="0">AVERAGE(C3:C25)</f>
         <v>0.75869565217391299</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="13">
         <f t="shared" si="0"/>
         <v>0.77913043478260857</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="10">
         <f t="shared" si="0"/>
         <v>0.76260869565217371</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>0.76695652173913031</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="13">
         <f t="shared" si="0"/>
         <v>0.7891304347826088</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="10">
         <f t="shared" si="0"/>
         <v>0.7439130434782607</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="10">
         <f t="shared" si="0"/>
         <v>0.76391304347826072</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="13">
         <f t="shared" si="0"/>
         <v>0.79826086956521725</v>
       </c>
-      <c r="K26" s="17" t="e">
+      <c r="K26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="L26" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="17">
+      <c r="M26" s="10">
         <f t="shared" si="0"/>
         <v>0.75624999999999998</v>
       </c>
@@ -2623,9 +2661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7628188B-1FB4-B34A-9DCE-3ACC53458D83}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E23" sqref="E23"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2650,12 +2688,12 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -2663,40 +2701,40 @@
     <row r="2" spans="1:13" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -2724,10 +2762,10 @@
       <c r="H3" s="9">
         <v>0.78</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="19">
         <v>0.8</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="19">
         <v>0.73</v>
       </c>
       <c r="M3">
@@ -2759,10 +2797,10 @@
       <c r="H4" s="9">
         <v>0.75</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="19">
         <v>0.76</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="19">
         <v>0.76</v>
       </c>
       <c r="M4">
@@ -2794,10 +2832,10 @@
       <c r="H5" s="9">
         <v>0.84</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="19">
         <v>0.84</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="19">
         <v>0.85</v>
       </c>
       <c r="M5">
@@ -2829,10 +2867,10 @@
       <c r="H6" s="9">
         <v>0.79</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="19">
         <v>0.79</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="19">
         <v>0.79</v>
       </c>
     </row>
@@ -2861,10 +2899,10 @@
       <c r="H7" s="9">
         <v>0.84</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="19">
         <v>0.84</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="19">
         <v>0.85</v>
       </c>
     </row>
@@ -2893,10 +2931,10 @@
       <c r="H8" s="9">
         <v>0.89</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="19">
         <v>0.89</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="19">
         <v>0.9</v>
       </c>
     </row>
@@ -2925,10 +2963,10 @@
       <c r="H9" s="9">
         <v>0.98</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="19">
         <v>0.98</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="19">
         <v>0.98</v>
       </c>
       <c r="M9">
@@ -2960,10 +2998,10 @@
       <c r="H10" s="9">
         <v>0.88</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="19">
         <v>0.88</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="19">
         <v>0.88</v>
       </c>
       <c r="M10">
@@ -2995,10 +3033,10 @@
       <c r="H11" s="9">
         <v>0.9</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="19">
         <v>0.9</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="19">
         <v>0.9</v>
       </c>
     </row>
@@ -3027,10 +3065,10 @@
       <c r="H12" s="9">
         <v>0.68</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="19">
         <v>0.74</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="19">
         <v>0.76</v>
       </c>
     </row>
@@ -3059,45 +3097,45 @@
       <c r="H13" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="19">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="19">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:13" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="26">
         <v>0.66</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="26">
         <v>0.84</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="26">
         <v>0.86</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="27">
         <v>0.88</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="26">
         <v>0.85</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="26">
         <v>0.86</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="27">
         <v>0.86</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="26">
         <v>0.86</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="26">
         <v>0.86</v>
       </c>
-      <c r="K14" s="11"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3124,11 +3162,14 @@
       <c r="H15" s="9">
         <v>0.87</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="19">
         <v>0.88</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="19">
         <v>0.89</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.81</v>
       </c>
       <c r="M15">
         <v>0.87</v>
@@ -3159,10 +3200,10 @@
       <c r="H16" s="9">
         <v>0.79</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="19">
         <v>0.79</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="19">
         <v>0.8</v>
       </c>
     </row>
@@ -3191,10 +3232,10 @@
       <c r="H17" s="9">
         <v>0.72</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="19">
         <v>0.72</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="19">
         <v>0.73</v>
       </c>
     </row>
@@ -3223,10 +3264,13 @@
       <c r="H18" s="9">
         <v>0.78</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="19">
         <v>0.78</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="K18" s="9">
         <v>0.82</v>
       </c>
     </row>
@@ -3255,10 +3299,10 @@
       <c r="H19" s="9">
         <v>0.97</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="19">
         <v>0.97</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="19">
         <v>0.98</v>
       </c>
     </row>
@@ -3287,11 +3331,14 @@
       <c r="H20" s="9">
         <v>0.83</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="19">
         <v>0.83</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="19">
         <v>0.85</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.79</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -3319,11 +3366,14 @@
       <c r="H21" s="9">
         <v>0.93</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="19">
         <v>0.93</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="19">
         <v>0.93</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.91</v>
       </c>
       <c r="M21">
         <v>0.93</v>
@@ -3354,10 +3404,10 @@
       <c r="H22" s="9">
         <v>0.96</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="19">
         <v>0.96</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="19">
         <v>0.96</v>
       </c>
       <c r="M22">
@@ -3389,10 +3439,10 @@
       <c r="H23" s="9">
         <v>0.85</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="19">
         <v>0.85</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="19">
         <v>0.86</v>
       </c>
     </row>
@@ -3421,94 +3471,95 @@
       <c r="H24" s="9">
         <v>0.87</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="19">
         <v>0.88</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="19">
         <v>0.88</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:13" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="26">
         <v>0.72</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="26">
         <v>0.73</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="26">
         <v>0.73</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="27">
         <v>0.67</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="26">
         <v>0.72</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="26">
         <v>0.72</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="27">
         <v>0.72</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="28">
         <v>0.72</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="28">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="17">
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="10">
         <f>AVERAGE(B3:B25)</f>
         <v>0.67086956521739116</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="10">
         <f t="shared" ref="C26:M26" si="0">AVERAGE(C3:C25)</f>
         <v>0.78782608695652179</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="13">
         <f t="shared" si="0"/>
         <v>0.82869565217391317</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="10">
         <f t="shared" si="0"/>
         <v>0.81913043478260905</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>0.82043478260869551</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="13">
         <f t="shared" si="0"/>
         <v>0.8369565217391306</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="10">
         <f t="shared" si="0"/>
         <v>0.82739130434782615</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="10">
         <f t="shared" si="0"/>
         <v>0.83304347826086955</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="13">
         <f t="shared" si="0"/>
         <v>0.83695652173913049</v>
       </c>
-      <c r="K26" s="17" t="e">
+      <c r="K26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="L26" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="17">
+      <c r="M26" s="10">
         <f t="shared" si="0"/>
         <v>0.86249999999999993</v>
       </c>
@@ -3527,392 +3578,2933 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DB831F-EEF7-1542-A67D-3F4306AD3F06}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="59" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="25" width="0" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" style="9"/>
+    <col min="37" max="37" width="10.83203125" style="13"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+    </row>
+    <row r="2" spans="1:37" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="18"/>
+    </row>
+    <row r="3" spans="1:37" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="N4">
+        <v>0.78</v>
+      </c>
+      <c r="O4">
+        <v>0.76</v>
+      </c>
+      <c r="P4">
+        <v>0.8</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="R4">
+        <v>0.78</v>
+      </c>
+      <c r="S4">
+        <v>0.78</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="U4" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="V4" s="19">
+        <v>0.73</v>
+      </c>
+      <c r="W4" s="9"/>
+      <c r="Y4">
+        <v>0.69</v>
+      </c>
+      <c r="Z4" s="22">
+        <f xml:space="preserve"> 2* ((B4*N4)/(B4+N4))</f>
+        <v>0.78</v>
+      </c>
+      <c r="AA4" s="22">
+        <f t="shared" ref="AA4:AK19" si="0" xml:space="preserve"> 2* ((C4*O4)/(C4+O4))</f>
+        <v>0.75496688741721862</v>
+      </c>
+      <c r="AB4" s="22">
+        <f t="shared" si="0"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="AC4" s="22">
+        <f t="shared" si="0"/>
+        <v>0.79</v>
+      </c>
+      <c r="AD4" s="22">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="AE4" s="22">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="AF4" s="22">
+        <f t="shared" si="0"/>
+        <v>0.7749677419354839</v>
+      </c>
+      <c r="AG4" s="22">
+        <f t="shared" si="0"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="AH4" s="22">
+        <f t="shared" si="0"/>
+        <v>0.72496551724137925</v>
+      </c>
+      <c r="AI4" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ4" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK4" s="23">
+        <f t="shared" si="0"/>
+        <v>0.56615384615384612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O5">
+        <v>0.74</v>
+      </c>
+      <c r="P5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="R5">
+        <v>0.75</v>
+      </c>
+      <c r="S5">
+        <v>0.74</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0.76</v>
+      </c>
+      <c r="V5" s="19">
+        <v>0.76</v>
+      </c>
+      <c r="W5" s="9"/>
+      <c r="Y5">
+        <v>0.75</v>
+      </c>
+      <c r="Z5" s="22">
+        <f t="shared" ref="Z5:AF26" si="1" xml:space="preserve"> 2* ((B5*N5)/(B5+N5))</f>
+        <v>0.62362204724409454</v>
+      </c>
+      <c r="AA5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.64396946564885482</v>
+      </c>
+      <c r="AB5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.62362204724409454</v>
+      </c>
+      <c r="AC5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.71412587412587403</v>
+      </c>
+      <c r="AD5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.69064748201438841</v>
+      </c>
+      <c r="AE5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.71412587412587403</v>
+      </c>
+      <c r="AF5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.64772727272727282</v>
+      </c>
+      <c r="AG5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.70070921985815604</v>
+      </c>
+      <c r="AH5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.7064788732394367</v>
+      </c>
+      <c r="AI5" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ5" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK5" s="23">
+        <f t="shared" si="0"/>
+        <v>0.64772727272727282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="N6">
+        <v>0.68</v>
+      </c>
+      <c r="O6">
+        <v>0.81</v>
+      </c>
+      <c r="P6">
+        <v>0.84</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="R6">
+        <v>0.83</v>
+      </c>
+      <c r="S6">
+        <v>0.85</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="U6" s="19">
+        <v>0.84</v>
+      </c>
+      <c r="V6" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="W6" s="9"/>
+      <c r="Y6">
+        <v>0.84</v>
+      </c>
+      <c r="Z6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.7222068965517241</v>
+      </c>
+      <c r="AA6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.76792207792207801</v>
+      </c>
+      <c r="AB6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.7695483870967742</v>
+      </c>
+      <c r="AC6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.77679487179487172</v>
+      </c>
+      <c r="AD6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+      <c r="AE6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8134969325153375</v>
+      </c>
+      <c r="AF6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.7695483870967742</v>
+      </c>
+      <c r="AG6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.7695483870967742</v>
+      </c>
+      <c r="AH6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8134969325153375</v>
+      </c>
+      <c r="AI6" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ6" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK6" s="23">
+        <f t="shared" si="0"/>
+        <v>0.7695483870967742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="13"/>
+      <c r="N7">
+        <v>0.66</v>
+      </c>
+      <c r="O7">
+        <v>0.71</v>
+      </c>
+      <c r="P7">
+        <v>0.79</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="R7">
+        <v>0.76</v>
+      </c>
+      <c r="S7">
+        <v>0.79</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="U7" s="19">
+        <v>0.79</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0.79</v>
+      </c>
+      <c r="W7" s="9"/>
+      <c r="Z7" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66496240601503764</v>
+      </c>
+      <c r="AA7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.68408759124087593</v>
+      </c>
+      <c r="AB7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.6947517730496453</v>
+      </c>
+      <c r="AC7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.70909090909090899</v>
+      </c>
+      <c r="AD7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="AE7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.6947517730496453</v>
+      </c>
+      <c r="AF7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.6947517730496453</v>
+      </c>
+      <c r="AG7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.6947517730496453</v>
+      </c>
+      <c r="AH7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.73088435374149652</v>
+      </c>
+      <c r="AI7" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ7" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK7" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="12"/>
+      <c r="N8">
+        <v>0.48</v>
+      </c>
+      <c r="O8">
+        <v>0.74</v>
+      </c>
+      <c r="P8">
+        <v>0.84</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="R8">
+        <v>0.84</v>
+      </c>
+      <c r="S8">
+        <v>0.85</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="U8" s="19">
+        <v>0.84</v>
+      </c>
+      <c r="V8" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="W8" s="9"/>
+      <c r="Z8" s="22">
+        <f t="shared" si="1"/>
+        <v>0.60279069767441862</v>
+      </c>
+      <c r="AA8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+      <c r="AB8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.7695483870967742</v>
+      </c>
+      <c r="AC8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.76363636363636356</v>
+      </c>
+      <c r="AD8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="AE8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="AF8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.76363636363636356</v>
+      </c>
+      <c r="AG8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.76363636363636356</v>
+      </c>
+      <c r="AH8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="AI8" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ8" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK8" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="12"/>
+      <c r="N9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O9">
+        <v>0.84</v>
+      </c>
+      <c r="P9">
+        <v>0.89</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.89</v>
+      </c>
+      <c r="R9">
+        <v>0.89</v>
+      </c>
+      <c r="S9">
+        <v>0.9</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0.89</v>
+      </c>
+      <c r="U9" s="19">
+        <v>0.89</v>
+      </c>
+      <c r="V9" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="W9" s="9"/>
+      <c r="Z9" s="22">
+        <f t="shared" si="1"/>
+        <v>0.68874999999999997</v>
+      </c>
+      <c r="AA9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="AB9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.84260355029585809</v>
+      </c>
+      <c r="AC9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.84260355029585809</v>
+      </c>
+      <c r="AD9" s="22">
+        <f xml:space="preserve"> 2* ((F9*R9)/(F9+R9))</f>
+        <v>0.84260355029585809</v>
+      </c>
+      <c r="AE9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.87428571428571433</v>
+      </c>
+      <c r="AF9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.84260355029585809</v>
+      </c>
+      <c r="AG9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.84260355029585809</v>
+      </c>
+      <c r="AH9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.89497206703910615</v>
+      </c>
+      <c r="AI9" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ9" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK9" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="N10">
+        <v>0.93</v>
+      </c>
+      <c r="O10">
+        <v>0.98</v>
+      </c>
+      <c r="P10">
+        <v>0.98</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="R10">
+        <v>0.98</v>
+      </c>
+      <c r="S10">
+        <v>0.98</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="U10" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="V10" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="W10" s="9"/>
+      <c r="Y10">
+        <v>0.98</v>
+      </c>
+      <c r="Z10" s="22">
+        <f t="shared" si="1"/>
+        <v>0.94957894736842108</v>
+      </c>
+      <c r="AA10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="AB10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.9698969072164948</v>
+      </c>
+      <c r="AC10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.9698969072164948</v>
+      </c>
+      <c r="AD10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.9698969072164948</v>
+      </c>
+      <c r="AE10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.9698969072164948</v>
+      </c>
+      <c r="AF10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.9698969072164948</v>
+      </c>
+      <c r="AG10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.9698969072164948</v>
+      </c>
+      <c r="AH10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.9698969072164948</v>
+      </c>
+      <c r="AI10" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ10" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.9698969072164948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="N11">
+        <v>0.88</v>
+      </c>
+      <c r="O11">
+        <v>0.77</v>
+      </c>
+      <c r="P11">
+        <v>0.91</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.88</v>
+      </c>
+      <c r="R11">
+        <v>0.88</v>
+      </c>
+      <c r="S11">
+        <v>0.88</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0.88</v>
+      </c>
+      <c r="U11" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="V11" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="W11" s="9"/>
+      <c r="Y11">
+        <v>0.88</v>
+      </c>
+      <c r="Z11" s="22">
+        <f t="shared" si="1"/>
+        <v>0.8647398843930636</v>
+      </c>
+      <c r="AA11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.76999999999999991</v>
+      </c>
+      <c r="AB11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.89988888888888896</v>
+      </c>
+      <c r="AC11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.82133333333333336</v>
+      </c>
+      <c r="AD11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.82133333333333336</v>
+      </c>
+      <c r="AE11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.82133333333333336</v>
+      </c>
+      <c r="AF11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.82133333333333336</v>
+      </c>
+      <c r="AG11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.82133333333333336</v>
+      </c>
+      <c r="AH11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.82133333333333336</v>
+      </c>
+      <c r="AI11" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ11" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.82133333333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="12"/>
+      <c r="N12">
+        <v>0.32</v>
+      </c>
+      <c r="O12">
+        <v>0.81</v>
+      </c>
+      <c r="P12">
+        <v>0.9</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="R12">
+        <v>0.87</v>
+      </c>
+      <c r="S12">
+        <v>0.9</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="U12" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="V12" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="W12" s="9"/>
+      <c r="Z12" s="22">
+        <f t="shared" si="1"/>
+        <v>0.46933333333333338</v>
+      </c>
+      <c r="AA12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="AB12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.85263157894736852</v>
+      </c>
+      <c r="AC12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.88474576271186445</v>
+      </c>
+      <c r="AD12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.83892857142857136</v>
+      </c>
+      <c r="AE12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.85263157894736852</v>
+      </c>
+      <c r="AF12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.85263157894736852</v>
+      </c>
+      <c r="AG12" s="22">
+        <f xml:space="preserve"> 2* ((I12*U12)/(I12+U12))</f>
+        <v>0.85263157894736852</v>
+      </c>
+      <c r="AH12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.85263157894736852</v>
+      </c>
+      <c r="AI12" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="12"/>
+      <c r="N13">
+        <v>0.42</v>
+      </c>
+      <c r="O13">
+        <v>0.61</v>
+      </c>
+      <c r="P13">
+        <v>0.75</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="R13">
+        <v>0.69</v>
+      </c>
+      <c r="S13">
+        <v>0.75</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="U13" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="V13" s="19">
+        <v>0.76</v>
+      </c>
+      <c r="W13" s="9"/>
+      <c r="Z13" s="22">
+        <f t="shared" si="1"/>
+        <v>0.53052631578947373</v>
+      </c>
+      <c r="AA13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="AB13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.64772727272727282</v>
+      </c>
+      <c r="AC13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.70411347517730494</v>
+      </c>
+      <c r="AD13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.68496350364963499</v>
+      </c>
+      <c r="AE13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="AF13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.6698507462686567</v>
+      </c>
+      <c r="AG13" s="22">
+        <f t="shared" ref="AG13:AK26" si="2" xml:space="preserve"> 2* ((I13*U13)/(I13+U13))</f>
+        <v>0.66874074074074064</v>
+      </c>
+      <c r="AH13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.7064788732394367</v>
+      </c>
+      <c r="AI13" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="12"/>
+      <c r="N14">
+        <v>0.48</v>
+      </c>
+      <c r="O14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P14">
+        <v>0.54</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="R14">
+        <v>0.52</v>
+      </c>
+      <c r="S14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U14" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V14" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="W14" s="9"/>
+      <c r="Z14" s="22">
+        <f t="shared" si="1"/>
+        <v>0.45913043478260873</v>
+      </c>
+      <c r="AA14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.53981481481481486</v>
+      </c>
+      <c r="AB14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.48489795918367351</v>
+      </c>
+      <c r="AC14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.54927272727272725</v>
+      </c>
+      <c r="AD14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.48816326530612253</v>
+      </c>
+      <c r="AE14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.54458715596330287</v>
+      </c>
+      <c r="AF14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.5009900990099011</v>
+      </c>
+      <c r="AG14" s="22">
+        <f t="shared" si="2"/>
+        <v>0.56495575221238936</v>
+      </c>
+      <c r="AH14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.53383177570093454</v>
+      </c>
+      <c r="AI14" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.86</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0.87</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0.77</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.74</v>
+      </c>
+      <c r="H15" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="I15" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0.78</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="26">
+        <v>0.66</v>
+      </c>
+      <c r="O15" s="26">
+        <v>0.84</v>
+      </c>
+      <c r="P15" s="26">
+        <v>0.86</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>0.88</v>
+      </c>
+      <c r="R15" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="S15" s="26">
+        <v>0.86</v>
+      </c>
+      <c r="T15" s="27">
+        <v>0.86</v>
+      </c>
+      <c r="U15" s="26">
+        <v>0.86</v>
+      </c>
+      <c r="V15" s="26">
+        <v>0.86</v>
+      </c>
+      <c r="W15" s="27"/>
+      <c r="Z15" s="29">
+        <f t="shared" si="1"/>
+        <v>0.69771428571428573</v>
+      </c>
+      <c r="AA15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.79245283018867929</v>
+      </c>
+      <c r="AB15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="AC15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.87497142857142851</v>
+      </c>
+      <c r="AD15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.80802469135802457</v>
+      </c>
+      <c r="AE15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.79549999999999987</v>
+      </c>
+      <c r="AF15" s="29">
+        <f xml:space="preserve"> 2* ((H15*T15)/(H15+T15))</f>
+        <v>0.79549999999999987</v>
+      </c>
+      <c r="AG15" s="29">
+        <f t="shared" si="2"/>
+        <v>0.79549999999999987</v>
+      </c>
+      <c r="AH15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.81804878048780494</v>
+      </c>
+      <c r="AI15" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ15" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK15" s="30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="32">
+        <v>0.81</v>
+      </c>
+      <c r="C16" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0.76</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="H16" s="32">
+        <v>0.76</v>
+      </c>
+      <c r="I16" s="32">
+        <v>0.89</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K16" s="32">
+        <v>0.81</v>
+      </c>
+      <c r="L16" s="32"/>
+      <c r="M16" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="N16">
+        <v>0.77</v>
+      </c>
+      <c r="O16">
+        <v>0.77</v>
+      </c>
+      <c r="P16">
+        <v>0.87</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0.81</v>
+      </c>
+      <c r="R16">
+        <v>0.85</v>
+      </c>
+      <c r="S16">
+        <v>0.89</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0.87</v>
+      </c>
+      <c r="U16" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="V16" s="19">
+        <v>0.89</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0.81</v>
+      </c>
+      <c r="Y16">
+        <v>0.87</v>
+      </c>
+      <c r="Z16" s="22">
+        <f t="shared" si="1"/>
+        <v>0.78949367088607592</v>
+      </c>
+      <c r="AA16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.78471337579617839</v>
+      </c>
+      <c r="AB16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.81128834355828228</v>
+      </c>
+      <c r="AC16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.77884615384615385</v>
+      </c>
+      <c r="AD16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.80248447204968953</v>
+      </c>
+      <c r="AE16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.89497206703910615</v>
+      </c>
+      <c r="AF16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.81128834355828228</v>
+      </c>
+      <c r="AG16" s="22">
+        <f t="shared" si="2"/>
+        <v>0.88497175141242934</v>
+      </c>
+      <c r="AH16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.89497206703910615</v>
+      </c>
+      <c r="AI16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="AJ16" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.81128834355828228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="12"/>
+      <c r="N17">
+        <v>0.79</v>
+      </c>
+      <c r="O17">
+        <v>0.79</v>
+      </c>
+      <c r="P17">
+        <v>0.8</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="R17">
+        <v>0.76</v>
+      </c>
+      <c r="S17">
+        <v>0.79</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="U17" s="19">
+        <v>0.79</v>
+      </c>
+      <c r="V17" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="W17" s="9"/>
+      <c r="Z17" s="22">
+        <f t="shared" si="1"/>
+        <v>0.76418300653594773</v>
+      </c>
+      <c r="AA17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.75881578947368422</v>
+      </c>
+      <c r="AB17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.7794871794871796</v>
+      </c>
+      <c r="AC17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AD17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.73414965986394554</v>
+      </c>
+      <c r="AE17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.75881578947368422</v>
+      </c>
+      <c r="AF17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.74228187919463084</v>
+      </c>
+      <c r="AG17" s="22">
+        <f t="shared" si="2"/>
+        <v>0.74786666666666657</v>
+      </c>
+      <c r="AH17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.78471337579617839</v>
+      </c>
+      <c r="AI17" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ17" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK17" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="12"/>
+      <c r="N18">
+        <v>0.73</v>
+      </c>
+      <c r="O18">
+        <v>0.73</v>
+      </c>
+      <c r="P18">
+        <v>0.74</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="R18">
+        <v>0.72</v>
+      </c>
+      <c r="S18">
+        <v>0.74</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="U18" s="19">
+        <v>0.72</v>
+      </c>
+      <c r="V18" s="19">
+        <v>0.73</v>
+      </c>
+      <c r="W18" s="9"/>
+      <c r="Z18" s="22">
+        <f t="shared" si="1"/>
+        <v>0.71986111111111106</v>
+      </c>
+      <c r="AA18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.71468531468531471</v>
+      </c>
+      <c r="AB18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.72986301369863005</v>
+      </c>
+      <c r="AC18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.68942028985507253</v>
+      </c>
+      <c r="AD18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.70468085106382983</v>
+      </c>
+      <c r="AE18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.7349659863945579</v>
+      </c>
+      <c r="AF18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.72986301369863005</v>
+      </c>
+      <c r="AG18" s="22">
+        <f t="shared" si="2"/>
+        <v>0.75789473684210518</v>
+      </c>
+      <c r="AH18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.74469798657718111</v>
+      </c>
+      <c r="AI18" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ18" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK18" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="12"/>
+      <c r="N19">
+        <v>0.74</v>
+      </c>
+      <c r="O19">
+        <v>0.72</v>
+      </c>
+      <c r="P19">
+        <v>0.8</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="R19">
+        <v>0.77</v>
+      </c>
+      <c r="S19">
+        <v>0.82</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="U19" s="19">
+        <v>0.78</v>
+      </c>
+      <c r="V19" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="Z19" s="22">
+        <f t="shared" si="1"/>
+        <v>0.70873239436619717</v>
+      </c>
+      <c r="AA19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.65454545454545465</v>
+      </c>
+      <c r="AB19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.81951219512195117</v>
+      </c>
+      <c r="AC19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.7077464788732396</v>
+      </c>
+      <c r="AD19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.68072463768115943</v>
+      </c>
+      <c r="AE19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.80987654320987656</v>
+      </c>
+      <c r="AF19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.69085714285714295</v>
+      </c>
+      <c r="AG19" s="22">
+        <f t="shared" si="2"/>
+        <v>0.69085714285714295</v>
+      </c>
+      <c r="AH19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.83473053892215565</v>
+      </c>
+      <c r="AI19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.80987654320987656</v>
+      </c>
+      <c r="AJ19" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK19" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="12"/>
+      <c r="N20">
+        <v>0.96</v>
+      </c>
+      <c r="O20">
+        <v>0.97</v>
+      </c>
+      <c r="P20">
+        <v>0.97</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="R20">
+        <v>0.97</v>
+      </c>
+      <c r="S20">
+        <v>0.98</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="U20" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="V20" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="W20" s="9"/>
+      <c r="Z20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.95497382198952874</v>
+      </c>
+      <c r="AA20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.95989583333333339</v>
+      </c>
+      <c r="AB20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.95989583333333339</v>
+      </c>
+      <c r="AC20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.96497409326424866</v>
+      </c>
+      <c r="AD20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.96497409326424866</v>
+      </c>
+      <c r="AE20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.98</v>
+      </c>
+      <c r="AF20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.95989583333333339</v>
+      </c>
+      <c r="AG20" s="22">
+        <f t="shared" si="2"/>
+        <v>0.95989583333333339</v>
+      </c>
+      <c r="AH20" s="22">
+        <f t="shared" si="2"/>
+        <v>0.98</v>
+      </c>
+      <c r="AI20" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ20" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK20" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="12"/>
+      <c r="N21">
+        <v>0.75</v>
+      </c>
+      <c r="O21">
+        <v>0.8</v>
+      </c>
+      <c r="P21">
+        <v>0.87</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="R21">
+        <v>0.83</v>
+      </c>
+      <c r="S21">
+        <v>0.83</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="U21" s="19">
+        <v>0.83</v>
+      </c>
+      <c r="V21" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="Z21" s="22">
+        <f t="shared" si="1"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="AA21" s="22">
+        <f t="shared" si="1"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="AB21" s="22">
+        <f t="shared" si="1"/>
+        <v>0.87988636363636363</v>
+      </c>
+      <c r="AC21" s="22">
+        <f t="shared" si="1"/>
+        <v>0.75355263157894714</v>
+      </c>
+      <c r="AD21" s="22">
+        <f t="shared" si="1"/>
+        <v>0.75355263157894714</v>
+      </c>
+      <c r="AE21" s="22">
+        <f t="shared" si="1"/>
+        <v>0.75355263157894714</v>
+      </c>
+      <c r="AF21" s="22">
+        <f t="shared" si="1"/>
+        <v>0.75355263157894714</v>
+      </c>
+      <c r="AG21" s="22">
+        <f t="shared" si="2"/>
+        <v>0.75355263157894714</v>
+      </c>
+      <c r="AH21" s="22">
+        <f t="shared" si="2"/>
+        <v>0.85988372093023246</v>
+      </c>
+      <c r="AI21" s="22">
+        <f t="shared" si="2"/>
+        <v>0.76418300653594773</v>
+      </c>
+      <c r="AJ21" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK21" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="N22">
+        <v>0.88</v>
+      </c>
+      <c r="O22">
+        <v>0.86</v>
+      </c>
+      <c r="P22">
+        <v>0.93</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="R22">
+        <v>0.93</v>
+      </c>
+      <c r="S22">
+        <v>0.93</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="U22" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="V22" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0.91</v>
+      </c>
+      <c r="Y22">
+        <v>0.93</v>
+      </c>
+      <c r="Z22" s="22">
+        <f t="shared" si="1"/>
+        <v>0.88497175141242934</v>
+      </c>
+      <c r="AA22" s="22">
+        <f t="shared" si="1"/>
+        <v>0.87954545454545452</v>
+      </c>
+      <c r="AB22" s="22">
+        <f t="shared" si="1"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AC22" s="22">
+        <f t="shared" si="1"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AD22" s="22">
+        <f t="shared" si="1"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AE22" s="22">
+        <f t="shared" si="1"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AF22" s="22">
+        <f t="shared" si="1"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AG22" s="22">
+        <f t="shared" si="2"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AH22" s="22">
+        <f t="shared" si="2"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AI22" s="22">
+        <f t="shared" si="2"/>
+        <v>0.89988888888888896</v>
+      </c>
+      <c r="AJ22" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK22" s="23">
+        <f t="shared" si="2"/>
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="N23">
+        <v>0.45</v>
+      </c>
+      <c r="O23">
+        <v>0.89</v>
+      </c>
+      <c r="P23">
+        <v>0.96</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="R23">
+        <v>0.96</v>
+      </c>
+      <c r="S23">
+        <v>0.96</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="U23" s="19">
+        <v>0.96</v>
+      </c>
+      <c r="V23" s="19">
+        <v>0.96</v>
+      </c>
+      <c r="W23" s="9"/>
+      <c r="Y23">
+        <v>0.96</v>
+      </c>
+      <c r="Z23" s="22">
+        <f t="shared" si="1"/>
+        <v>0.60863309352517991</v>
+      </c>
+      <c r="AA23" s="22">
+        <f t="shared" si="1"/>
+        <v>0.90956043956043964</v>
+      </c>
+      <c r="AB23" s="22">
+        <f t="shared" si="1"/>
+        <v>0.94476190476190469</v>
+      </c>
+      <c r="AC23" s="22">
+        <f t="shared" si="1"/>
+        <v>0.94476190476190469</v>
+      </c>
+      <c r="AD23" s="22">
+        <f t="shared" si="1"/>
+        <v>0.94476190476190469</v>
+      </c>
+      <c r="AE23" s="22">
+        <f t="shared" si="1"/>
+        <v>0.94476190476190469</v>
+      </c>
+      <c r="AF23" s="22">
+        <f t="shared" si="1"/>
+        <v>0.94476190476190469</v>
+      </c>
+      <c r="AG23" s="22">
+        <f t="shared" si="2"/>
+        <v>0.94476190476190469</v>
+      </c>
+      <c r="AH23" s="22">
+        <f t="shared" si="2"/>
+        <v>0.93957446808510647</v>
+      </c>
+      <c r="AI23" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ23" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK23" s="23">
+        <f t="shared" si="2"/>
+        <v>0.94476190476190469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="12"/>
+      <c r="N24">
+        <v>0.36</v>
+      </c>
+      <c r="O24">
+        <v>0.84</v>
+      </c>
+      <c r="P24">
+        <v>0.85</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="R24">
+        <v>0.84</v>
+      </c>
+      <c r="S24">
+        <v>0.86</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="U24" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="V24" s="19">
+        <v>0.86</v>
+      </c>
+      <c r="W24" s="9"/>
+      <c r="Z24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.49846153846153851</v>
+      </c>
+      <c r="AA24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.81951219512195117</v>
+      </c>
+      <c r="AB24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.77371794871794863</v>
+      </c>
+      <c r="AC24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.81890243902439019</v>
+      </c>
+      <c r="AD24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.80888888888888888</v>
+      </c>
+      <c r="AE24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.84473372781065093</v>
+      </c>
+      <c r="AF24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.77371794871794863</v>
+      </c>
+      <c r="AG24" s="22">
+        <f t="shared" si="2"/>
+        <v>0.85988372093023246</v>
+      </c>
+      <c r="AH24" s="22">
+        <f t="shared" si="2"/>
+        <v>0.86988505747126443</v>
+      </c>
+      <c r="AI24" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ24" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK24" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="12"/>
+      <c r="N25">
+        <v>0.87</v>
+      </c>
+      <c r="O25">
+        <v>0.86</v>
+      </c>
+      <c r="P25">
+        <v>0.89</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="R25">
+        <v>0.88</v>
+      </c>
+      <c r="S25">
+        <v>0.89</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0.87</v>
+      </c>
+      <c r="U25" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="V25" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="W25" s="9"/>
+      <c r="Z25" s="22">
+        <f t="shared" si="1"/>
+        <v>0.84952941176470587</v>
+      </c>
+      <c r="AA25" s="22">
+        <f t="shared" si="1"/>
+        <v>0.82891566265060246</v>
+      </c>
+      <c r="AB25" s="22">
+        <f t="shared" si="1"/>
+        <v>0.87988636363636363</v>
+      </c>
+      <c r="AC25" s="22">
+        <f t="shared" si="1"/>
+        <v>0.82424242424242433</v>
+      </c>
+      <c r="AD25" s="22">
+        <f t="shared" si="1"/>
+        <v>0.85953488372093023</v>
+      </c>
+      <c r="AE25" s="22">
+        <f t="shared" si="1"/>
+        <v>0.87988636363636363</v>
+      </c>
+      <c r="AF25" s="22">
+        <f t="shared" si="1"/>
+        <v>0.81695121951219507</v>
+      </c>
+      <c r="AG25" s="22">
+        <f t="shared" si="2"/>
+        <v>0.82133333333333336</v>
+      </c>
+      <c r="AH25" s="22">
+        <f t="shared" si="2"/>
+        <v>0.82133333333333336</v>
+      </c>
+      <c r="AI25" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ25" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK25" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="24">
+        <v>0.69</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0.73</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.63</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0.69</v>
+      </c>
+      <c r="H26" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="I26" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="J26" s="25">
+        <v>0.72</v>
+      </c>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26">
+        <v>0.72</v>
+      </c>
+      <c r="O26" s="26">
+        <v>0.73</v>
+      </c>
+      <c r="P26" s="26">
+        <v>0.73</v>
+      </c>
+      <c r="Q26" s="27">
+        <v>0.67</v>
+      </c>
+      <c r="R26" s="26">
+        <v>0.72</v>
+      </c>
+      <c r="S26" s="26">
+        <v>0.72</v>
+      </c>
+      <c r="T26" s="27">
+        <v>0.72</v>
+      </c>
+      <c r="U26" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="V26" s="28">
+        <v>0.73</v>
+      </c>
+      <c r="W26" s="27"/>
+      <c r="Z26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.70468085106382983</v>
+      </c>
+      <c r="AA26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.71468531468531471</v>
+      </c>
+      <c r="AB26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.72999999999999987</v>
+      </c>
+      <c r="AC26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.64938461538461545</v>
+      </c>
+      <c r="AD26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.70985915492957752</v>
+      </c>
+      <c r="AE26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.70468085106382983</v>
+      </c>
+      <c r="AF26" s="29">
+        <f t="shared" si="1"/>
+        <v>0.75789473684210518</v>
+      </c>
+      <c r="AG26" s="29">
+        <f t="shared" si="2"/>
+        <v>0.72986301369863005</v>
+      </c>
+      <c r="AH26" s="29">
+        <f t="shared" si="2"/>
+        <v>0.72496551724137925</v>
+      </c>
+      <c r="AI26" s="29" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ26" s="29" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK26" s="30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="9">
+        <f>AVERAGE(Z4:Z26)</f>
+        <v>0.70876442531895445</v>
+      </c>
+      <c r="AA27" s="9">
+        <f t="shared" ref="AA27:AK27" si="3">AVERAGE(AA4:AA26)</f>
+        <v>0.77209080441870659</v>
+      </c>
+      <c r="AB27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.800974604247774</v>
+      </c>
+      <c r="AC27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.78913766235034899</v>
+      </c>
+      <c r="AD27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.79205097749589337</v>
+      </c>
+      <c r="AE27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.8115589188872171</v>
+      </c>
+      <c r="AF27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.78189140902488119</v>
+      </c>
+      <c r="AG27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.79539949312181935</v>
+      </c>
+      <c r="AH27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.81638152426513322</v>
+      </c>
+      <c r="AI27" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ27" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK27" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+  <mergeCells count="16">
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing_Result/Result.xlsx
+++ b/Testing_Result/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Documents/GitHub/SDP/Testing_Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652EBA57-ED4F-4845-A049-02226463C175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81504AB6-09C9-8941-BBFC-D5DD7B785A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="28620" windowHeight="15800" activeTab="3" xr2:uid="{901090D2-3000-7642-B970-AD517F5AFA05}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="28620" windowHeight="15800" xr2:uid="{901090D2-3000-7642-B970-AD517F5AFA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
@@ -769,9 +769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E06810-3D41-FB4E-89FA-F81CF008A409}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D30" sqref="D30"/>
+      <selection pane="topRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -779,7 +779,8 @@
     <col min="4" max="4" width="10.83203125" style="13"/>
     <col min="7" max="7" width="10.83203125" style="13"/>
     <col min="10" max="10" width="10.83203125" style="13"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -877,6 +878,9 @@
       <c r="J3" s="13">
         <v>0.73</v>
       </c>
+      <c r="K3" s="19">
+        <v>0.8</v>
+      </c>
       <c r="M3">
         <v>0.69</v>
       </c>
@@ -912,6 +916,9 @@
       <c r="J4" s="13">
         <v>0.76</v>
       </c>
+      <c r="K4" s="19">
+        <v>0.74</v>
+      </c>
       <c r="M4">
         <v>0.75</v>
       </c>
@@ -947,6 +954,9 @@
       <c r="J5" s="13">
         <v>0.85</v>
       </c>
+      <c r="K5" s="19">
+        <v>0.84</v>
+      </c>
       <c r="M5">
         <v>0.84</v>
       </c>
@@ -982,6 +992,9 @@
       <c r="J6" s="13">
         <v>0.79</v>
       </c>
+      <c r="M6">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1014,6 +1027,9 @@
       <c r="J7" s="13">
         <v>0.85</v>
       </c>
+      <c r="M7">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1046,6 +1062,9 @@
       <c r="J8" s="13">
         <v>0.9</v>
       </c>
+      <c r="M8">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1078,6 +1097,9 @@
       <c r="J9" s="13">
         <v>0.98</v>
       </c>
+      <c r="K9" s="19">
+        <v>0.96</v>
+      </c>
       <c r="M9">
         <v>0.98</v>
       </c>
@@ -1113,6 +1135,9 @@
       <c r="J10" s="13">
         <v>0.88</v>
       </c>
+      <c r="K10" s="19">
+        <v>0.87</v>
+      </c>
       <c r="M10">
         <v>0.88</v>
       </c>
@@ -1179,6 +1204,9 @@
       </c>
       <c r="J12" s="13">
         <v>0.76</v>
+      </c>
+      <c r="M12">
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -2663,7 +2691,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25:XFD25"/>
+      <selection pane="topRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3580,7 +3608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DB831F-EEF7-1542-A67D-3F4306AD3F06}">
   <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="59" workbookViewId="0">
+    <sheetView zoomScaleNormal="59" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
